--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0B74D346-0BC2-4D8F-B756-C7E5B07459EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D5C76-EF25-48E2-B172-0091393EA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>day</t>
   </si>
@@ -105,9 +105,6 @@
     <t>Remove Duplicates from Sorted Array</t>
   </si>
   <si>
-    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/submissions/1051352954/</t>
-  </si>
-  <si>
     <t>Remove Element</t>
   </si>
   <si>
@@ -169,6 +166,12 @@
   </si>
   <si>
     <t>All Time</t>
+  </si>
+  <si>
+    <t>Climbing Stairs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fibonacci </t>
   </si>
 </sst>
 </file>
@@ -524,15 +527,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:I16"/>
+  <dimension ref="A2:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38" customWidth="1"/>
     <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.85546875" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
@@ -737,31 +740,13 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>81</v>
-      </c>
-      <c r="E9">
-        <v>0.2</v>
-      </c>
-      <c r="F9">
-        <v>18</v>
-      </c>
-      <c r="G9">
-        <v>0.53</v>
-      </c>
-      <c r="H9" t="s">
-        <v>22</v>
-      </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C10">
         <v>1</v>
@@ -779,7 +764,7 @@
         <v>0.1</v>
       </c>
       <c r="H10" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -787,7 +772,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11">
         <v>3</v>
@@ -805,7 +790,7 @@
         <v>0.39</v>
       </c>
       <c r="H11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -813,7 +798,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -831,7 +816,7 @@
         <v>0.03</v>
       </c>
       <c r="H12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -839,7 +824,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13">
         <v>1</v>
@@ -857,7 +842,7 @@
         <v>0.22</v>
       </c>
       <c r="H13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -865,7 +850,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14">
         <v>1</v>
@@ -883,7 +868,7 @@
         <v>0.01</v>
       </c>
       <c r="H14" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -891,7 +876,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C15">
         <v>3</v>
@@ -909,7 +894,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="H15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -917,7 +902,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C16">
         <v>2</v>
@@ -935,10 +920,111 @@
         <v>0.15</v>
       </c>
       <c r="H16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="I16" t="s">
-        <v>36</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="I17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>33</v>
       </c>
     </row>
   </sheetData>
@@ -951,7 +1037,7 @@
   <dimension ref="A2:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -966,44 +1052,44 @@
   <sheetData>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>41</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f>SUM(Sheet1!C3:C34)/COUNT(Sheet1!C3:C34)</f>
-        <v>1.8571428571428572</v>
+        <v>1.9230769230769231</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D46)/COUNT(Sheet1!D3:D47)</f>
-        <v>225.14285714285714</v>
+        <v>236.23076923076923</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E88)/COUNT(Sheet1!E3:E88)</f>
-        <v>0.43142857142857149</v>
+        <v>0.44923076923076921</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F46)/COUNT(Sheet1!F3:F47)</f>
-        <v>16.485714285714284</v>
+        <v>16.369230769230768</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G46)/COUNT(Sheet1!G3:G47)</f>
-        <v>0.27385714285714285</v>
+        <v>0.25415384615384612</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{418D5C76-EF25-48E2-B172-0091393EA367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B6F77-F01D-4815-BF19-5B65A74756B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="9525" yWindow="2280" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
   <si>
     <t>day</t>
   </si>
@@ -172,6 +172,12 @@
   </si>
   <si>
     <t xml:space="preserve">fibonacci </t>
+  </si>
+  <si>
+    <t>Remove Duplicates from Sorted List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/submissions/</t>
   </si>
 </sst>
 </file>
@@ -530,7 +536,7 @@
   <dimension ref="A2:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -940,6 +946,27 @@
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>45</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>53</v>
+      </c>
+      <c r="E18">
+        <v>0.83</v>
+      </c>
+      <c r="F18">
+        <v>16.39</v>
+      </c>
+      <c r="G18">
+        <v>0.61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
@@ -1073,23 +1100,23 @@
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B3" s="2">
         <f>SUM(Sheet1!C3:C34)/COUNT(Sheet1!C3:C34)</f>
-        <v>1.9230769230769231</v>
+        <v>1.8571428571428572</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D46)/COUNT(Sheet1!D3:D47)</f>
-        <v>236.23076923076923</v>
+        <v>223.14285714285714</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E88)/COUNT(Sheet1!E3:E88)</f>
-        <v>0.44923076923076921</v>
+        <v>0.47642857142857142</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F46)/COUNT(Sheet1!F3:F47)</f>
-        <v>16.369230769230768</v>
+        <v>16.370714285714286</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G46)/COUNT(Sheet1!G3:G47)</f>
-        <v>0.25415384615384612</v>
+        <v>0.27957142857142853</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0B6F77-F01D-4815-BF19-5B65A74756B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083F22-29AE-40F8-A73D-D11D5ED9DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9525" yWindow="2280" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t>day</t>
   </si>
@@ -178,13 +178,29 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-duplicates-from-sorted-list/submissions/</t>
+  </si>
+  <si>
+    <t>Merge Sorted Array</t>
+  </si>
+  <si>
+    <t>isSuccess</t>
+  </si>
+  <si>
+    <t>SuccessRate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -210,18 +226,26 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -533,28 +557,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:I35"/>
+  <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="38" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="73.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="73.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -562,28 +587,31 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>8</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>3</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>9</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -594,22 +622,25 @@
         <v>1</v>
       </c>
       <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
         <v>2525</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>0.79</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>17.2</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>0.27</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -620,48 +651,54 @@
         <v>1</v>
       </c>
       <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
         <v>62</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>0.46</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>16.3</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>0.35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="1">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
+        <v>1</v>
+      </c>
+      <c r="E5">
         <v>49</v>
       </c>
-      <c r="E5">
+      <c r="F5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="F5">
+      <c r="G5">
         <v>16.399999999999999</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>0.6</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -669,25 +706,28 @@
         <v>15</v>
       </c>
       <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
         <v>3</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>43</v>
       </c>
-      <c r="E6">
+      <c r="F6">
         <v>0.5</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>16.399999999999999</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>0.39</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -695,25 +735,28 @@
         <v>17</v>
       </c>
       <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>28</v>
       </c>
-      <c r="E7">
+      <c r="F7">
         <v>0.02</v>
       </c>
-      <c r="F7">
+      <c r="G7">
         <v>16.2</v>
       </c>
-      <c r="G7">
+      <c r="H7">
         <v>0.22</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -724,30 +767,36 @@
         <v>1</v>
       </c>
       <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
         <v>53</v>
       </c>
-      <c r="E8">
+      <c r="F8">
         <v>0.93</v>
       </c>
-      <c r="F8">
+      <c r="G8">
         <v>16.3</v>
       </c>
-      <c r="G8">
+      <c r="H8">
         <v>0.56999999999999995</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="C9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -758,22 +807,25 @@
         <v>1</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>49</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>0.91</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>16.2</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.1</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -781,25 +833,28 @@
         <v>24</v>
       </c>
       <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
         <v>3</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>32</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>0.09</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>16.3</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>0.39</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -807,25 +862,28 @@
         <v>26</v>
       </c>
       <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
         <v>3</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>52</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>0.25</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>17</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>0.03</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -836,22 +894,25 @@
         <v>1</v>
       </c>
       <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
         <v>36</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>0.27</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>16.2</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>0.22</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -862,22 +923,25 @@
         <v>1</v>
       </c>
       <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
         <v>39</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>0.34</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>16.100000000000001</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>0.01</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -885,25 +949,28 @@
         <v>32</v>
       </c>
       <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>40</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>0.34</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>16.100000000000001</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -911,39 +978,45 @@
         <v>34</v>
       </c>
       <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
         <v>2</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>63</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>0.66</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>16.100000000000001</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>0.15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>36</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
       </c>
-      <c r="I17" t="s">
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="J17" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -954,87 +1027,96 @@
         <v>1</v>
       </c>
       <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
         <v>53</v>
       </c>
-      <c r="E18">
+      <c r="F18">
         <v>0.83</v>
       </c>
-      <c r="F18">
+      <c r="G18">
         <v>16.39</v>
       </c>
-      <c r="G18">
+      <c r="H18">
         <v>0.61</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -1061,61 +1143,68 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
-  <dimension ref="A2:F3"/>
+  <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="2">
-        <f>SUM(Sheet1!C3:C34)/COUNT(Sheet1!C3:C34)</f>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B3" s="4">
+        <f>SUM(Sheet1!C3:C19)/COUNT(Sheet1!C3:C19)</f>
+        <v>0.82352941176470584</v>
+      </c>
+      <c r="C3" s="2">
+        <f>SUM(Sheet1!D3:D34)/COUNT(Sheet1!D3:D34)</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="C3" s="2">
-        <f>SUM(Sheet1!D3:D46)/COUNT(Sheet1!D3:D47)</f>
+      <c r="D3" s="2">
+        <f>SUM(Sheet1!E3:E46)/COUNT(Sheet1!E3:E47)</f>
         <v>223.14285714285714</v>
       </c>
-      <c r="D3" s="2">
-        <f>SUM(Sheet1!E3:E88)/COUNT(Sheet1!E3:E88)</f>
+      <c r="E3" s="2">
+        <f>SUM(Sheet1!F3:F88)/COUNT(Sheet1!F3:F88)</f>
         <v>0.47642857142857142</v>
-      </c>
-      <c r="E3" s="2">
-        <f>SUM(Sheet1!F3:F46)/COUNT(Sheet1!F3:F47)</f>
-        <v>16.370714285714286</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G46)/COUNT(Sheet1!G3:G47)</f>
+        <v>16.370714285714286</v>
+      </c>
+      <c r="G3" s="2">
+        <f>SUM(Sheet1!H3:H46)/COUNT(Sheet1!H3:H47)</f>
         <v>0.27957142857142853</v>
       </c>
     </row>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD083F22-29AE-40F8-A73D-D11D5ED9DA9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1982C-BAA7-4EC2-B93B-44D8857B64BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
   <si>
     <t>day</t>
   </si>
@@ -187,6 +187,15 @@
   </si>
   <si>
     <t>SuccessRate</t>
+  </si>
+  <si>
+    <t>Binary Tree Inorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-inorder-traversal/submissions/1060854991/</t>
+  </si>
+  <si>
+    <t>stack, recursion, depth-first search</t>
   </si>
 </sst>
 </file>
@@ -559,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1060,6 +1069,33 @@
       <c r="A20">
         <v>18</v>
       </c>
+      <c r="B20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20">
+        <v>37</v>
+      </c>
+      <c r="F20">
+        <v>0.33</v>
+      </c>
+      <c r="G20">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H20">
+        <v>1.2500000000000001E-2</v>
+      </c>
+      <c r="I20" t="s">
+        <v>51</v>
+      </c>
+      <c r="J20" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -1145,8 +1181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1184,28 +1220,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>SUM(Sheet1!C3:C19)/COUNT(Sheet1!C3:C19)</f>
-        <v>0.82352941176470584</v>
+        <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
+        <v>0.83333333333333337</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(Sheet1!D3:D34)/COUNT(Sheet1!D3:D34)</f>
-        <v>1.8571428571428572</v>
+        <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
+        <v>1.8</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(Sheet1!E3:E46)/COUNT(Sheet1!E3:E47)</f>
-        <v>223.14285714285714</v>
+        <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
+        <v>210.73333333333332</v>
       </c>
       <c r="E3" s="2">
-        <f>SUM(Sheet1!F3:F88)/COUNT(Sheet1!F3:F88)</f>
-        <v>0.47642857142857142</v>
+        <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
+        <v>0.46666666666666667</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(Sheet1!G3:G46)/COUNT(Sheet1!G3:G47)</f>
-        <v>16.370714285714286</v>
+        <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
+        <v>16.352666666666668</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(Sheet1!H3:H46)/COUNT(Sheet1!H3:H47)</f>
-        <v>0.27957142857142853</v>
+        <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
+        <v>0.26176666666666665</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAA1982C-BAA7-4EC2-B93B-44D8857B64BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E6F1E-794E-4819-8556-66FFF84BDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
   <si>
     <t>day</t>
   </si>
@@ -196,6 +196,12 @@
   </si>
   <si>
     <t>stack, recursion, depth-first search</t>
+  </si>
+  <si>
+    <t>Same Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/same-tree/submissions/1061449405/</t>
   </si>
 </sst>
 </file>
@@ -568,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1101,6 +1107,30 @@
       <c r="A21">
         <v>19</v>
       </c>
+      <c r="B21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>2</v>
+      </c>
+      <c r="E21">
+        <v>38</v>
+      </c>
+      <c r="F21">
+        <v>0.43</v>
+      </c>
+      <c r="G21">
+        <v>16.5</v>
+      </c>
+      <c r="H21">
+        <v>0.89</v>
+      </c>
+      <c r="I21" t="s">
+        <v>54</v>
+      </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -1181,8 +1211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1221,27 +1251,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.83333333333333337</v>
+        <v>0.84210526315789469</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8</v>
+        <v>1.8125</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>210.73333333333332</v>
+        <v>199.9375</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.46666666666666667</v>
+        <v>0.46437499999999998</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>16.352666666666668</v>
+        <v>16.361874999999998</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.26176666666666665</v>
+        <v>0.30103124999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E6F1E-794E-4819-8556-66FFF84BDE24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB737B8-8F6E-4861-8E11-F471D12EA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t>day</t>
   </si>
@@ -202,13 +202,19 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/same-tree/submissions/1061449405/</t>
+  </si>
+  <si>
+    <t>Symmetric Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/symmetric-tree/submissions/1062657334/</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -219,6 +225,14 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -241,11 +255,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,8 +272,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
+    <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -575,7 +592,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,6 +1153,30 @@
       <c r="A22">
         <v>20</v>
       </c>
+      <c r="B22" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>2</v>
+      </c>
+      <c r="E22">
+        <v>45</v>
+      </c>
+      <c r="F22">
+        <v>0.72</v>
+      </c>
+      <c r="G22">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="H22">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="I22" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -1203,6 +1244,9 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1251,27 +1295,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.84210526315789469</v>
+        <v>0.85</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8125</v>
+        <v>1.8235294117647058</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>199.9375</v>
+        <v>190.8235294117647</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.46437499999999998</v>
+        <v>0.47941176470588237</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>16.361874999999998</v>
+        <v>16.351764705882349</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.30103124999999997</v>
+        <v>0.28397058823529409</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AB737B8-8F6E-4861-8E11-F471D12EA613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA2819-FF0F-4475-853D-51BB579C5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="2250" yWindow="1905" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>day</t>
   </si>
@@ -208,6 +208,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/symmetric-tree/submissions/1062657334/</t>
+  </si>
+  <si>
+    <t>Maximum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/submissions/1063310024/</t>
   </si>
 </sst>
 </file>
@@ -591,8 +597,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1182,6 +1188,30 @@
       <c r="A23">
         <v>21</v>
       </c>
+      <c r="B23" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>45</v>
+      </c>
+      <c r="F23">
+        <v>0.35</v>
+      </c>
+      <c r="G23">
+        <v>18.7</v>
+      </c>
+      <c r="H23">
+        <v>0.47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -1246,6 +1276,7 @@
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
+    <hyperlink ref="B23" r:id="rId2" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{6902DA6B-21B5-44D4-A518-15AE37E860B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1295,27 +1326,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.85</v>
+        <v>0.8571428571428571</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8235294117647058</v>
+        <v>1.8888888888888888</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>190.8235294117647</v>
+        <v>182.72222222222223</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.47941176470588237</v>
+        <v>0.47222222222222221</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>16.351764705882349</v>
+        <v>16.482222222222219</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.28397058823529409</v>
+        <v>0.29430555555555554</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EBA2819-FF0F-4475-853D-51BB579C5C8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF9A210-EC6A-478D-B4D0-700EA69EE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="1905" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>day</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/maximum-depth-of-binary-tree/submissions/1063310024/</t>
+  </si>
+  <si>
+    <t>Convert Sorted Array to Binary Search Tree</t>
   </si>
 </sst>
 </file>
@@ -597,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1217,6 +1220,12 @@
       <c r="A24">
         <v>22</v>
       </c>
+      <c r="B24" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -1277,6 +1286,7 @@
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
     <hyperlink ref="B23" r:id="rId2" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{6902DA6B-21B5-44D4-A518-15AE37E860B6}"/>
+    <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{2BB159B6-E93E-4022-A9CD-2B613846B527}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1326,7 +1336,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.8571428571428571</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FF9A210-EC6A-478D-B4D0-700EA69EE079}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A43CA-680F-4BE9-B9E7-FD6C99239DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="9885" yWindow="1515" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
   <si>
     <t>day</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>Convert Sorted Array to Binary Search Tree</t>
+  </si>
+  <si>
+    <t>Balanced Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -600,8 +603,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1231,6 +1234,12 @@
       <c r="A25">
         <v>23</v>
       </c>
+      <c r="B25" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -1287,6 +1296,7 @@
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
     <hyperlink ref="B23" r:id="rId2" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{6902DA6B-21B5-44D4-A518-15AE37E860B6}"/>
     <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{2BB159B6-E93E-4022-A9CD-2B613846B527}"/>
+    <hyperlink ref="B25" r:id="rId4" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{83488FFA-404E-4890-9EA2-D1ECF37FB47D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1336,7 +1346,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.81818181818181823</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B02A43CA-680F-4BE9-B9E7-FD6C99239DE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22CB53-1ED1-44EF-810C-A390B37B47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9885" yWindow="1515" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1260" yWindow="1530" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
   <si>
     <t>day</t>
   </si>
@@ -220,6 +220,12 @@
   </si>
   <si>
     <t>Balanced Binary Tree</t>
+  </si>
+  <si>
+    <t>Minimum Depth of Binary Tree</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/submissions/1065754632/</t>
   </si>
 </sst>
 </file>
@@ -604,7 +610,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1245,6 +1251,30 @@
       <c r="A26">
         <v>24</v>
       </c>
+      <c r="B26" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26">
+        <v>440</v>
+      </c>
+      <c r="F26">
+        <v>0.66</v>
+      </c>
+      <c r="G26">
+        <v>58.2</v>
+      </c>
+      <c r="H26">
+        <v>0.752</v>
+      </c>
+      <c r="I26" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -1297,6 +1327,7 @@
     <hyperlink ref="B23" r:id="rId2" display="https://leetcode.com/problems/maximum-depth-of-binary-tree" xr:uid="{6902DA6B-21B5-44D4-A518-15AE37E860B6}"/>
     <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{2BB159B6-E93E-4022-A9CD-2B613846B527}"/>
     <hyperlink ref="B25" r:id="rId4" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{83488FFA-404E-4890-9EA2-D1ECF37FB47D}"/>
+    <hyperlink ref="B26" r:id="rId5" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{B3592E20-F375-4F2B-9DFA-E9E4D64DEBC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1346,27 +1377,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.78260869565217395</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8888888888888888</v>
+        <v>1.8421052631578947</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>182.72222222222223</v>
+        <v>196.26315789473685</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.47222222222222221</v>
+        <v>0.48210526315789476</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>16.482222222222219</v>
+        <v>18.677894736842102</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.29430555555555554</v>
+        <v>0.31839473684210523</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A22CB53-1ED1-44EF-810C-A390B37B47B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09C339-2269-44AF-B378-EBEB5F986EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1260" yWindow="1530" windowWidth="14460" windowHeight="12720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="31695" yWindow="2370" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t>day</t>
   </si>
@@ -226,6 +226,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/minimum-depth-of-binary-tree/submissions/1065754632/</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle/submissions/1068158329/</t>
   </si>
 </sst>
 </file>
@@ -609,8 +615,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView topLeftCell="B10" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1280,6 +1286,30 @@
       <c r="A27">
         <v>25</v>
       </c>
+      <c r="B27" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>38</v>
+      </c>
+      <c r="F27">
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <v>16.3</v>
+      </c>
+      <c r="H27">
+        <v>0.69</v>
+      </c>
+      <c r="I27" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -1328,6 +1358,7 @@
     <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{2BB159B6-E93E-4022-A9CD-2B613846B527}"/>
     <hyperlink ref="B25" r:id="rId4" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{83488FFA-404E-4890-9EA2-D1ECF37FB47D}"/>
     <hyperlink ref="B26" r:id="rId5" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{B3592E20-F375-4F2B-9DFA-E9E4D64DEBC2}"/>
+    <hyperlink ref="B27" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1337,8 +1368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1377,27 +1408,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.79166666666666663</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8421052631578947</v>
+        <v>1.8</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>196.26315789473685</v>
+        <v>188.35</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.48210526315789476</v>
+        <v>0.47050000000000003</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.677894736842102</v>
+        <v>18.558999999999997</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.31839473684210523</v>
+        <v>0.33697499999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC09C339-2269-44AF-B378-EBEB5F986EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8EF5C-5772-4331-9012-DDFBF235953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="2370" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="31695" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
   <si>
     <t>day</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/pascals-triangle/submissions/1068158329/</t>
+  </si>
+  <si>
+    <t>Pascal's Triangle II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/pascals-triangle-ii/submissions/1068905874/</t>
   </si>
 </sst>
 </file>
@@ -615,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView topLeftCell="B10" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,6 +1321,30 @@
       <c r="A28">
         <v>26</v>
       </c>
+      <c r="B28" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>35</v>
+      </c>
+      <c r="F28">
+        <v>0.22</v>
+      </c>
+      <c r="G28">
+        <v>16.3</v>
+      </c>
+      <c r="H28">
+        <v>0.43</v>
+      </c>
+      <c r="I28" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -1359,6 +1389,7 @@
     <hyperlink ref="B25" r:id="rId4" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{83488FFA-404E-4890-9EA2-D1ECF37FB47D}"/>
     <hyperlink ref="B26" r:id="rId5" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{B3592E20-F375-4F2B-9DFA-E9E4D64DEBC2}"/>
     <hyperlink ref="B27" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
+    <hyperlink ref="B28" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1368,7 +1399,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1408,27 +1439,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.8</v>
+        <v>1.7619047619047619</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>188.35</v>
+        <v>181.04761904761904</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.47050000000000003</v>
+        <v>0.45857142857142863</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.558999999999997</v>
+        <v>18.451428571428568</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.33697499999999997</v>
+        <v>0.34140476190476188</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBB8EF5C-5772-4331-9012-DDFBF235953C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543A164-9F21-4231-B227-92FD787084C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="31695" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
   <si>
     <t>day</t>
   </si>
@@ -238,6 +238,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/pascals-triangle-ii/submissions/1068905874/</t>
+  </si>
+  <si>
+    <t>Best Time to Buy and Sell Stock</t>
   </si>
 </sst>
 </file>
@@ -622,7 +625,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1350,6 +1353,12 @@
       <c r="A29">
         <v>27</v>
       </c>
+      <c r="B29" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -1390,6 +1399,7 @@
     <hyperlink ref="B26" r:id="rId5" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{B3592E20-F375-4F2B-9DFA-E9E4D64DEBC2}"/>
     <hyperlink ref="B27" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
     <hyperlink ref="B28" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
+    <hyperlink ref="B29" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1439,7 +1449,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.80769230769230771</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0543A164-9F21-4231-B227-92FD787084C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2732959-6954-45A3-92A3-E7CFA8251345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31695" yWindow="2370" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
   <si>
     <t>day</t>
   </si>
@@ -241,6 +241,12 @@
   </si>
   <si>
     <t>Best Time to Buy and Sell Stock</t>
+  </si>
+  <si>
+    <t>Valid Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-palindrome/submissions/1070463341/</t>
   </si>
 </sst>
 </file>
@@ -625,7 +631,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="H33" sqref="H33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1364,6 +1370,30 @@
       <c r="A30">
         <v>28</v>
       </c>
+      <c r="B30" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30">
+        <v>59</v>
+      </c>
+      <c r="F30">
+        <v>0.78</v>
+      </c>
+      <c r="G30">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="H30">
+        <v>5.33E-2</v>
+      </c>
+      <c r="I30" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -1400,6 +1430,7 @@
     <hyperlink ref="B27" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
     <hyperlink ref="B28" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
     <hyperlink ref="B29" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
+    <hyperlink ref="B30" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1449,27 +1480,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.77777777777777779</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.7619047619047619</v>
+        <v>1.7272727272727273</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>181.04761904761904</v>
+        <v>175.5</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.45857142857142863</v>
+        <v>0.4731818181818182</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.451428571428568</v>
+        <v>18.380909090909089</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.34140476190476188</v>
+        <v>0.32830909090909088</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2732959-6954-45A3-92A3-E7CFA8251345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732A59A-4C9F-4B60-97E3-3BE39B1B0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
   <si>
     <t>day</t>
   </si>
@@ -247,6 +247,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-palindrome/submissions/1070463341/</t>
+  </si>
+  <si>
+    <t>Single Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number/submissions/</t>
   </si>
 </sst>
 </file>
@@ -631,7 +637,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="H33" sqref="H33"/>
+      <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,6 +1405,30 @@
       <c r="A31">
         <v>29</v>
       </c>
+      <c r="B31" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31">
+        <v>121</v>
+      </c>
+      <c r="F31">
+        <v>0.26</v>
+      </c>
+      <c r="G31">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I31" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32">
@@ -1431,6 +1461,7 @@
     <hyperlink ref="B28" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
     <hyperlink ref="B29" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
     <hyperlink ref="B30" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
+    <hyperlink ref="B31" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1441,7 +1472,7 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1480,27 +1511,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.7857142857142857</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.7272727272727273</v>
+        <v>1.6956521739130435</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>175.5</v>
+        <v>173.13043478260869</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.4731818181818182</v>
+        <v>0.46391304347826084</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.380909090909089</v>
+        <v>18.401304347826084</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.32830909090909088</v>
+        <v>0.32012173913043473</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A732A59A-4C9F-4B60-97E3-3BE39B1B0817}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E2AB1-6C14-4305-AED9-9A34CE1F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>day</t>
   </si>
@@ -253,6 +253,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/single-number/submissions/</t>
+  </si>
+  <si>
+    <t>Linked List Cycle</t>
   </si>
 </sst>
 </file>
@@ -637,7 +640,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1434,6 +1437,12 @@
       <c r="A32">
         <v>30</v>
       </c>
+      <c r="B32" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33">
@@ -1462,6 +1471,7 @@
     <hyperlink ref="B29" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
     <hyperlink ref="B30" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
     <hyperlink ref="B31" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
+    <hyperlink ref="B32" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1511,7 +1521,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.7931034482758621</v>
+        <v>0.76666666666666672</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{422E2AB1-6C14-4305-AED9-9A34CE1F2D3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4E9CC-CF94-4A62-939C-D11E335BB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>day</t>
   </si>
@@ -256,6 +256,12 @@
   </si>
   <si>
     <t>Linked List Cycle</t>
+  </si>
+  <si>
+    <t>Binary Tree Preorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-preorder-traversal/submissions/</t>
   </si>
 </sst>
 </file>
@@ -640,7 +646,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1444,17 +1450,41 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B33" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33">
+        <v>28</v>
+      </c>
+      <c r="F33">
+        <v>2.46E-2</v>
+      </c>
+      <c r="G33">
+        <v>16.23</v>
+      </c>
+      <c r="H33">
+        <v>0.43</v>
+      </c>
+      <c r="I33" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1472,6 +1502,7 @@
     <hyperlink ref="B30" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
     <hyperlink ref="B31" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
     <hyperlink ref="B32" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
+    <hyperlink ref="B33" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1521,27 +1552,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.76666666666666672</v>
+        <v>0.77419354838709675</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.6956521739130435</v>
+        <v>1.6666666666666667</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>173.13043478260869</v>
+        <v>167.08333333333334</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.46391304347826084</v>
+        <v>0.44560833333333333</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.401304347826084</v>
+        <v>18.310833333333331</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.32012173913043473</v>
+        <v>0.32469999999999993</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C4E9CC-CF94-4A62-939C-D11E335BB615}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C178D4-B7F1-46B0-910C-9F62CD6C1AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
   <si>
     <t>day</t>
   </si>
@@ -262,6 +262,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-preorder-traversal/submissions/</t>
+  </si>
+  <si>
+    <t>Binary Tree Postorder Traversal</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/binary-tree-postorder-traversal/submissions/</t>
   </si>
 </sst>
 </file>
@@ -646,7 +652,7 @@
   <dimension ref="A2:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I33" sqref="I33"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1483,6 +1489,30 @@
       <c r="A34">
         <v>32</v>
       </c>
+      <c r="B34" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>34</v>
+      </c>
+      <c r="F34">
+        <v>0.19</v>
+      </c>
+      <c r="G34">
+        <v>16.09</v>
+      </c>
+      <c r="H34">
+        <v>2.1700000000000001E-2</v>
+      </c>
+      <c r="I34" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
@@ -1503,6 +1533,7 @@
     <hyperlink ref="B31" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
     <hyperlink ref="B32" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
     <hyperlink ref="B33" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
+    <hyperlink ref="B34" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1552,27 +1583,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.77419354838709675</v>
+        <v>0.78125</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.6666666666666667</v>
+        <v>1.64</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>167.08333333333334</v>
+        <v>161.76</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.44560833333333333</v>
+        <v>0.43538399999999994</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.310833333333331</v>
+        <v>18.221999999999998</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.32469999999999993</v>
+        <v>0.31257999999999997</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C178D4-B7F1-46B0-910C-9F62CD6C1AEC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264DC7F8-76F4-45EA-874A-2157FB758B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="31635" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
   <si>
     <t>day</t>
   </si>
@@ -268,6 +268,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/binary-tree-postorder-traversal/submissions/</t>
+  </si>
+  <si>
+    <t>Intersection of Two Linked Lists</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/intersection-of-two-linked-lists/submissions/1074330981/</t>
   </si>
 </sst>
 </file>
@@ -651,8 +657,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1518,6 +1524,30 @@
       <c r="A35">
         <v>33</v>
       </c>
+      <c r="B35" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35">
+        <v>125</v>
+      </c>
+      <c r="F35">
+        <v>0.33</v>
+      </c>
+      <c r="G35">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H35">
+        <v>0.87</v>
+      </c>
+      <c r="I35" t="s">
+        <v>78</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1534,6 +1564,7 @@
     <hyperlink ref="B32" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
     <hyperlink ref="B33" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
     <hyperlink ref="B34" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
+    <hyperlink ref="B35" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1583,27 +1614,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.78125</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.64</v>
+        <v>1.6153846153846154</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>161.76</v>
+        <v>160.34615384615384</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.43538399999999994</v>
+        <v>0.43133076923076918</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.221999999999998</v>
+        <v>18.763461538461538</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.31257999999999997</v>
+        <v>0.33401923076923068</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{264DC7F8-76F4-45EA-874A-2157FB758B81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EC58E-DBB9-4340-A3BF-408586F635C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31635" yWindow="2400" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="36000" yWindow="-15" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
   <si>
     <t>day</t>
   </si>
@@ -274,6 +274,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/intersection-of-two-linked-lists/submissions/1074330981/</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Title</t>
   </si>
 </sst>
 </file>
@@ -655,10 +658,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J35"/>
+  <dimension ref="A2:J36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1549,6 +1552,14 @@
         <v>78</v>
       </c>
     </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B36" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
@@ -1565,6 +1576,7 @@
     <hyperlink ref="B33" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
     <hyperlink ref="B34" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
     <hyperlink ref="B35" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
+    <hyperlink ref="B36" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1614,7 +1626,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.78787878787878785</v>
+        <v>0.76470588235294112</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E2EC58E-DBB9-4340-A3BF-408586F635C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55244044-4285-4B04-93A7-74489DA334E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36000" yWindow="-15" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
   <si>
     <t>day</t>
   </si>
@@ -277,6 +277,12 @@
   </si>
   <si>
     <t>Excel Sheet Column Title</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/submissions/1075778041/</t>
   </si>
 </sst>
 </file>
@@ -658,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J36"/>
+  <dimension ref="A2:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1560,6 +1566,32 @@
         <v>0</v>
       </c>
     </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37">
+        <v>1</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>136</v>
+      </c>
+      <c r="F37">
+        <v>4.7000000000000002E-3</v>
+      </c>
+      <c r="G37">
+        <v>17.8</v>
+      </c>
+      <c r="H37">
+        <v>0.17419999999999999</v>
+      </c>
+      <c r="I37" t="s">
+        <v>81</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
@@ -1577,6 +1609,7 @@
     <hyperlink ref="B34" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
     <hyperlink ref="B35" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
     <hyperlink ref="B36" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
+    <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1626,27 +1659,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.76470588235294112</v>
+        <v>0.77142857142857146</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.6153846153846154</v>
+        <v>1.5925925925925926</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>160.34615384615384</v>
+        <v>159.44444444444446</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.43133076923076918</v>
+        <v>0.41552962962962958</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.763461538461538</v>
+        <v>18.727777777777778</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.33401923076923068</v>
+        <v>0.32809999999999995</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55244044-4285-4B04-93A7-74489DA334E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642CAA0E-BADD-4161-A793-EFDEF82C5EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t>day</t>
   </si>
@@ -283,6 +283,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/majority-element/submissions/1075778041/</t>
+  </si>
+  <si>
+    <t>Excel Sheet Column Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/excel-sheet-column-number/submissions/1077070542/</t>
   </si>
 </sst>
 </file>
@@ -664,10 +670,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J37"/>
+  <dimension ref="A2:J38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+      <selection activeCell="I38" sqref="I38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1592,6 +1598,32 @@
         <v>81</v>
       </c>
     </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B38" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38">
+        <v>45</v>
+      </c>
+      <c r="F38">
+        <v>0.74</v>
+      </c>
+      <c r="G38">
+        <v>16.2</v>
+      </c>
+      <c r="H38">
+        <v>0.21</v>
+      </c>
+      <c r="I38" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
@@ -1610,6 +1642,7 @@
     <hyperlink ref="B35" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
     <hyperlink ref="B36" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
     <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
+    <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1659,27 +1692,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.77142857142857146</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5925925925925926</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>159.44444444444446</v>
+        <v>155.35714285714286</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.41552962962962958</v>
+        <v>0.4271178571428571</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.727777777777778</v>
+        <v>18.637499999999999</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.32809999999999995</v>
+        <v>0.32388214285714284</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{642CAA0E-BADD-4161-A793-EFDEF82C5EBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85C72B-F1DB-4307-93C0-B648648EFD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t>day</t>
   </si>
@@ -289,6 +289,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/excel-sheet-column-number/submissions/1077070542/</t>
+  </si>
+  <si>
+    <t>Combine Two Tables</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/combine-two-tables/submissions/</t>
   </si>
 </sst>
 </file>
@@ -670,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J38"/>
+  <dimension ref="A2:J39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+      <selection activeCell="F43" sqref="F43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,6 +1630,26 @@
         <v>83</v>
       </c>
     </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B39" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39">
+        <v>670</v>
+      </c>
+      <c r="F39">
+        <v>5.3199999999999997E-2</v>
+      </c>
+      <c r="I39" t="s">
+        <v>85</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B22" r:id="rId1" display="https://leetcode.com/problems/symmetric-tree/" xr:uid="{179A0BEC-6488-4641-A2CB-0D9767BAF139}"/>
@@ -1643,6 +1669,7 @@
     <hyperlink ref="B36" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
     <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
     <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
+    <hyperlink ref="B39" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1653,7 +1680,7 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1692,19 +1719,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.77777777777777779</v>
+        <v>0.78378378378378377</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5714285714285714</v>
+        <v>1.5517241379310345</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>155.35714285714286</v>
+        <v>173.10344827586206</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.4271178571428571</v>
+        <v>0.41422413793103446</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E85C72B-F1DB-4307-93C0-B648648EFD34}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0F65D-694A-4EFF-A62A-3CB7F3096D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="2430" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <si>
     <t>day</t>
   </si>
@@ -295,6 +295,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/combine-two-tables/submissions/</t>
+  </si>
+  <si>
+    <t>Employees Earning More Than Their Managers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/employees-earning-more-than-their-managers/submissions/</t>
   </si>
 </sst>
 </file>
@@ -676,15 +682,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J39"/>
+  <dimension ref="A2:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B22" workbookViewId="0">
-      <selection activeCell="F43" sqref="F43"/>
+    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
+      <selection activeCell="G40" sqref="G40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="38" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="13.85546875" customWidth="1"/>
@@ -1648,6 +1654,26 @@
       </c>
       <c r="I39" t="s">
         <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B40" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C40">
+        <v>1</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40">
+        <v>612</v>
+      </c>
+      <c r="F40">
+        <v>4.8099999999999997E-2</v>
+      </c>
+      <c r="I40" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1670,6 +1696,7 @@
     <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
     <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
     <hyperlink ref="B39" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
+    <hyperlink ref="B40" r:id="rId19" display="https://leetcode.com/problems/employees-earning-more-than-their-managers/" xr:uid="{62307ADD-7C06-419F-B09F-30D3997943C0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1719,19 +1746,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.78378378378378377</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5517241379310345</v>
+        <v>1.5333333333333334</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>173.10344827586206</v>
+        <v>187.73333333333332</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.41422413793103446</v>
+        <v>0.40201999999999999</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DE0F65D-694A-4EFF-A62A-3CB7F3096D8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5839F26-78D9-44C8-A647-AE1A446EA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2430" yWindow="2490" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="9870" yWindow="2490" windowWidth="14160" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
   <si>
     <t>day</t>
   </si>
@@ -301,6 +301,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/employees-earning-more-than-their-managers/submissions/</t>
+  </si>
+  <si>
+    <t>Duplicate Emails</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/duplicate-emails/submissions/</t>
   </si>
 </sst>
 </file>
@@ -682,10 +688,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J40"/>
+  <dimension ref="A2:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C22" workbookViewId="0">
-      <selection activeCell="G40" sqref="G40"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B46" sqref="B46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1577,6 +1583,9 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>34</v>
+      </c>
       <c r="B36" s="5" t="s">
         <v>79</v>
       </c>
@@ -1585,6 +1594,9 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>35</v>
+      </c>
       <c r="B37" s="5" t="s">
         <v>80</v>
       </c>
@@ -1611,6 +1623,9 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>36</v>
+      </c>
       <c r="B38" s="5" t="s">
         <v>82</v>
       </c>
@@ -1637,6 +1652,9 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>37</v>
+      </c>
       <c r="B39" s="5" t="s">
         <v>84</v>
       </c>
@@ -1657,6 +1675,9 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>38</v>
+      </c>
       <c r="B40" s="5" t="s">
         <v>86</v>
       </c>
@@ -1674,6 +1695,60 @@
       </c>
       <c r="I40" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41">
+        <v>498</v>
+      </c>
+      <c r="F41">
+        <v>0.52</v>
+      </c>
+      <c r="G41">
+        <v>61.12</v>
+      </c>
+      <c r="H41">
+        <v>0.75</v>
+      </c>
+      <c r="I41" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1697,6 +1772,7 @@
     <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
     <hyperlink ref="B39" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
     <hyperlink ref="B40" r:id="rId19" display="https://leetcode.com/problems/employees-earning-more-than-their-managers/" xr:uid="{62307ADD-7C06-419F-B09F-30D3997943C0}"/>
+    <hyperlink ref="B41" r:id="rId20" display="https://leetcode.com/problems/duplicate-emails/" xr:uid="{5433BF7E-958D-46B9-B495-0589CF44C112}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1746,27 +1822,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.78947368421052633</v>
+        <v>0.79487179487179482</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5333333333333334</v>
+        <v>1.5161290322580645</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>187.73333333333332</v>
+        <v>197.74193548387098</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.40201999999999999</v>
+        <v>0.40582580645161287</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>18.637499999999999</v>
+        <v>20.102413793103448</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.32388214285714284</v>
+        <v>0.33857586206896551</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5839F26-78D9-44C8-A647-AE1A446EA045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABA37D-1965-40D2-8D81-68100D1A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9870" yWindow="2490" windowWidth="14160" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
   <si>
     <t>day</t>
   </si>
@@ -307,6 +307,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/duplicate-emails/submissions/</t>
+  </si>
+  <si>
+    <t>Customers Who Never Order</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/customers-who-never-order/submissions/</t>
   </si>
 </sst>
 </file>
@@ -691,7 +697,7 @@
   <dimension ref="A2:J46"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+      <selection activeCell="I42" sqref="I42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1729,6 +1735,24 @@
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
+      </c>
+      <c r="B42" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42">
+        <v>1149</v>
+      </c>
+      <c r="F42">
+        <v>0.42</v>
+      </c>
+      <c r="I42" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
@@ -1773,6 +1797,7 @@
     <hyperlink ref="B39" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
     <hyperlink ref="B40" r:id="rId19" display="https://leetcode.com/problems/employees-earning-more-than-their-managers/" xr:uid="{62307ADD-7C06-419F-B09F-30D3997943C0}"/>
     <hyperlink ref="B41" r:id="rId20" display="https://leetcode.com/problems/duplicate-emails/" xr:uid="{5433BF7E-958D-46B9-B495-0589CF44C112}"/>
+    <hyperlink ref="B42" r:id="rId21" display="https://leetcode.com/problems/customers-who-never-order/" xr:uid="{B284F064-0CA4-44F8-AF58-E4FD65777595}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1822,19 +1847,19 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.79487179487179482</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5161290322580645</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>197.74193548387098</v>
+        <v>227.46875</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.40582580645161287</v>
+        <v>0.40626874999999996</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1AABA37D-1965-40D2-8D81-68100D1A4D70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221AC5FE-E2E2-4041-B7EB-70D1E0BF17A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9870" yWindow="2490" windowWidth="14160" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="List" sheetId="1" r:id="rId1"/>
+    <sheet name="Statistic" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
   <si>
     <t>day</t>
   </si>
@@ -313,6 +313,15 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/customers-who-never-order/submissions/</t>
+  </si>
+  <si>
+    <t>Path Sum</t>
+  </si>
+  <si>
+    <t>Reverse Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-bits/submissions/1080554417/</t>
   </si>
 </sst>
 </file>
@@ -694,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J46"/>
+  <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="I42" sqref="I42"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1368,28 +1377,10 @@
         <v>25</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>63</v>
+        <v>92</v>
       </c>
       <c r="C27">
-        <v>1</v>
-      </c>
-      <c r="D27">
-        <v>1</v>
-      </c>
-      <c r="E27">
-        <v>38</v>
-      </c>
-      <c r="F27">
-        <v>0.25</v>
-      </c>
-      <c r="G27">
-        <v>16.3</v>
-      </c>
-      <c r="H27">
-        <v>0.69</v>
-      </c>
-      <c r="I27" t="s">
-        <v>64</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
@@ -1397,7 +1388,7 @@
         <v>26</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -1406,19 +1397,19 @@
         <v>1</v>
       </c>
       <c r="E28">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F28">
-        <v>0.22</v>
+        <v>0.25</v>
       </c>
       <c r="G28">
         <v>16.3</v>
       </c>
       <c r="H28">
-        <v>0.43</v>
+        <v>0.69</v>
       </c>
       <c r="I28" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
@@ -1426,10 +1417,28 @@
         <v>27</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>35</v>
+      </c>
+      <c r="F29">
+        <v>0.22</v>
+      </c>
+      <c r="G29">
+        <v>16.3</v>
+      </c>
+      <c r="H29">
+        <v>0.43</v>
+      </c>
+      <c r="I29" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,28 +1446,10 @@
         <v>28</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C30">
-        <v>1</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <v>59</v>
-      </c>
-      <c r="F30">
-        <v>0.78</v>
-      </c>
-      <c r="G30">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="H30">
-        <v>5.33E-2</v>
-      </c>
-      <c r="I30" t="s">
-        <v>69</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
@@ -1466,7 +1457,7 @@
         <v>29</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -1475,19 +1466,19 @@
         <v>1</v>
       </c>
       <c r="E31">
-        <v>121</v>
+        <v>59</v>
       </c>
       <c r="F31">
-        <v>0.26</v>
+        <v>0.78</v>
       </c>
       <c r="G31">
-        <v>18.850000000000001</v>
+        <v>16.899999999999999</v>
       </c>
       <c r="H31">
-        <v>0.14000000000000001</v>
+        <v>5.33E-2</v>
       </c>
       <c r="I31" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -1495,10 +1486,28 @@
         <v>30</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32">
+        <v>121</v>
+      </c>
+      <c r="F32">
+        <v>0.26</v>
+      </c>
+      <c r="G32">
+        <v>18.850000000000001</v>
+      </c>
+      <c r="H32">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I32" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
@@ -1506,28 +1515,10 @@
         <v>31</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C33">
-        <v>1</v>
-      </c>
-      <c r="D33">
-        <v>1</v>
-      </c>
-      <c r="E33">
-        <v>28</v>
-      </c>
-      <c r="F33">
-        <v>2.46E-2</v>
-      </c>
-      <c r="G33">
-        <v>16.23</v>
-      </c>
-      <c r="H33">
-        <v>0.43</v>
-      </c>
-      <c r="I33" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
@@ -1535,7 +1526,7 @@
         <v>32</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -1544,19 +1535,19 @@
         <v>1</v>
       </c>
       <c r="E34">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="F34">
-        <v>0.19</v>
+        <v>2.46E-2</v>
       </c>
       <c r="G34">
-        <v>16.09</v>
+        <v>16.23</v>
       </c>
       <c r="H34">
-        <v>2.1700000000000001E-2</v>
+        <v>0.43</v>
       </c>
       <c r="I34" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
@@ -1564,7 +1555,7 @@
         <v>33</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -1573,19 +1564,19 @@
         <v>1</v>
       </c>
       <c r="E35">
-        <v>125</v>
+        <v>34</v>
       </c>
       <c r="F35">
-        <v>0.33</v>
+        <v>0.19</v>
       </c>
       <c r="G35">
-        <v>32.299999999999997</v>
+        <v>16.09</v>
       </c>
       <c r="H35">
-        <v>0.87</v>
+        <v>2.1700000000000001E-2</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
@@ -1593,10 +1584,28 @@
         <v>34</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>125</v>
+      </c>
+      <c r="F36">
+        <v>0.33</v>
+      </c>
+      <c r="G36">
+        <v>32.299999999999997</v>
+      </c>
+      <c r="H36">
+        <v>0.87</v>
+      </c>
+      <c r="I36" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
@@ -1604,28 +1613,10 @@
         <v>35</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37">
-        <v>1</v>
-      </c>
-      <c r="D37">
-        <v>1</v>
-      </c>
-      <c r="E37">
-        <v>136</v>
-      </c>
-      <c r="F37">
-        <v>4.7000000000000002E-3</v>
-      </c>
-      <c r="G37">
-        <v>17.8</v>
-      </c>
-      <c r="H37">
-        <v>0.17419999999999999</v>
-      </c>
-      <c r="I37" t="s">
-        <v>81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
@@ -1633,7 +1624,7 @@
         <v>36</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -1642,19 +1633,19 @@
         <v>1</v>
       </c>
       <c r="E38">
-        <v>45</v>
+        <v>136</v>
       </c>
       <c r="F38">
-        <v>0.74</v>
+        <v>4.7000000000000002E-3</v>
       </c>
       <c r="G38">
-        <v>16.2</v>
+        <v>17.8</v>
       </c>
       <c r="H38">
-        <v>0.21</v>
+        <v>0.17419999999999999</v>
       </c>
       <c r="I38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
@@ -1662,7 +1653,7 @@
         <v>37</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -1671,13 +1662,19 @@
         <v>1</v>
       </c>
       <c r="E39">
-        <v>670</v>
+        <v>45</v>
       </c>
       <c r="F39">
-        <v>5.3199999999999997E-2</v>
+        <v>0.74</v>
+      </c>
+      <c r="G39">
+        <v>16.2</v>
+      </c>
+      <c r="H39">
+        <v>0.21</v>
       </c>
       <c r="I39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
@@ -1685,7 +1682,7 @@
         <v>38</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -1694,13 +1691,13 @@
         <v>1</v>
       </c>
       <c r="E40">
-        <v>612</v>
+        <v>670</v>
       </c>
       <c r="F40">
-        <v>4.8099999999999997E-2</v>
+        <v>5.3199999999999997E-2</v>
       </c>
       <c r="I40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
@@ -1708,7 +1705,7 @@
         <v>39</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -1717,19 +1714,13 @@
         <v>1</v>
       </c>
       <c r="E41">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="F41">
-        <v>0.52</v>
-      </c>
-      <c r="G41">
-        <v>61.12</v>
-      </c>
-      <c r="H41">
-        <v>0.75</v>
+        <v>4.8099999999999997E-2</v>
       </c>
       <c r="I41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
@@ -1737,7 +1728,7 @@
         <v>40</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -1746,24 +1737,72 @@
         <v>1</v>
       </c>
       <c r="E42">
-        <v>1149</v>
+        <v>498</v>
       </c>
       <c r="F42">
-        <v>0.42</v>
+        <v>0.52</v>
+      </c>
+      <c r="G42">
+        <v>61.12</v>
+      </c>
+      <c r="H42">
+        <v>0.75</v>
       </c>
       <c r="I42" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
+      <c r="B43" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="C43">
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1149</v>
+      </c>
+      <c r="F43">
+        <v>0.42</v>
+      </c>
+      <c r="I43" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
+      <c r="B44" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>40</v>
+      </c>
+      <c r="F44">
+        <v>0.44</v>
+      </c>
+      <c r="G44">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="H44">
+        <v>7.0300000000000001E-2</v>
+      </c>
+      <c r="I44" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
@@ -1773,6 +1812,71 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1782,24 +1886,27 @@
     <hyperlink ref="B24" r:id="rId3" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/" xr:uid="{2BB159B6-E93E-4022-A9CD-2B613846B527}"/>
     <hyperlink ref="B25" r:id="rId4" display="https://leetcode.com/problems/balanced-binary-tree/" xr:uid="{83488FFA-404E-4890-9EA2-D1ECF37FB47D}"/>
     <hyperlink ref="B26" r:id="rId5" display="https://leetcode.com/problems/minimum-depth-of-binary-tree" xr:uid="{B3592E20-F375-4F2B-9DFA-E9E4D64DEBC2}"/>
-    <hyperlink ref="B27" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
-    <hyperlink ref="B28" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
-    <hyperlink ref="B29" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
-    <hyperlink ref="B30" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
-    <hyperlink ref="B31" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
-    <hyperlink ref="B32" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
-    <hyperlink ref="B33" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
-    <hyperlink ref="B34" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
-    <hyperlink ref="B35" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
-    <hyperlink ref="B36" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
-    <hyperlink ref="B37" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
-    <hyperlink ref="B38" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
-    <hyperlink ref="B39" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
-    <hyperlink ref="B40" r:id="rId19" display="https://leetcode.com/problems/employees-earning-more-than-their-managers/" xr:uid="{62307ADD-7C06-419F-B09F-30D3997943C0}"/>
-    <hyperlink ref="B41" r:id="rId20" display="https://leetcode.com/problems/duplicate-emails/" xr:uid="{5433BF7E-958D-46B9-B495-0589CF44C112}"/>
-    <hyperlink ref="B42" r:id="rId21" display="https://leetcode.com/problems/customers-who-never-order/" xr:uid="{B284F064-0CA4-44F8-AF58-E4FD65777595}"/>
+    <hyperlink ref="B28" r:id="rId6" display="https://leetcode.com/problems/pascals-triangle/" xr:uid="{46E86F62-C292-4461-9CBB-FC65E4A9EF89}"/>
+    <hyperlink ref="B29" r:id="rId7" display="https://leetcode.com/problems/pascals-triangle-ii/" xr:uid="{7AA2A744-43D2-4B3C-9813-4C64F1F1C954}"/>
+    <hyperlink ref="B30" r:id="rId8" display="https://leetcode.com/problems/best-time-to-buy-and-sell-stock/" xr:uid="{F9139806-1578-4E99-BF41-DD8470448D7F}"/>
+    <hyperlink ref="B31" r:id="rId9" display="https://leetcode.com/problems/valid-palindrome/" xr:uid="{80A95DDB-41AC-4410-BBCD-1D68D0846FC5}"/>
+    <hyperlink ref="B32" r:id="rId10" display="https://leetcode.com/problems/single-number/" xr:uid="{A88A07CF-84E9-4F40-8560-789C74C67FBA}"/>
+    <hyperlink ref="B33" r:id="rId11" display="https://leetcode.com/problems/linked-list-cycle/" xr:uid="{E1A8F251-1548-46DD-B80B-75DF44348844}"/>
+    <hyperlink ref="B34" r:id="rId12" display="https://leetcode.com/problems/binary-tree-preorder-traversal/" xr:uid="{385B877C-E859-424E-841A-ABD6E6139F49}"/>
+    <hyperlink ref="B35" r:id="rId13" display="https://leetcode.com/problems/binary-tree-postorder-traversal/" xr:uid="{791124EC-361F-4D29-BFC1-EB95676DE037}"/>
+    <hyperlink ref="B36" r:id="rId14" display="https://leetcode.com/problems/intersection-of-two-linked-lists/" xr:uid="{A73CDD70-2903-4AA2-9AE8-3F4061C8E816}"/>
+    <hyperlink ref="B37" r:id="rId15" display="https://leetcode.com/problems/excel-sheet-column-title/" xr:uid="{61C14145-41C4-4152-BF0B-815F2392BA14}"/>
+    <hyperlink ref="B38" r:id="rId16" display="https://leetcode.com/problems/majority-element/" xr:uid="{98274804-AC11-4B76-A3B6-81F0C81B91DE}"/>
+    <hyperlink ref="B39" r:id="rId17" display="https://leetcode.com/problems/excel-sheet-column-number/" xr:uid="{7F28BEC0-D155-4F70-8ACF-323F45BBCBBB}"/>
+    <hyperlink ref="B40" r:id="rId18" display="https://leetcode.com/problems/combine-two-tables/" xr:uid="{984C0F2F-EFB7-4993-AA93-319437E6DC97}"/>
+    <hyperlink ref="B41" r:id="rId19" display="https://leetcode.com/problems/employees-earning-more-than-their-managers/" xr:uid="{62307ADD-7C06-419F-B09F-30D3997943C0}"/>
+    <hyperlink ref="B42" r:id="rId20" display="https://leetcode.com/problems/duplicate-emails/" xr:uid="{5433BF7E-958D-46B9-B495-0589CF44C112}"/>
+    <hyperlink ref="B43" r:id="rId21" display="https://leetcode.com/problems/customers-who-never-order/" xr:uid="{B284F064-0CA4-44F8-AF58-E4FD65777595}"/>
+    <hyperlink ref="B27" r:id="rId22" display="https://leetcode.com/problems/path-sum" xr:uid="{1DC767CF-5DB3-45C4-9814-B9B93574C7C5}"/>
+    <hyperlink ref="B44" r:id="rId23" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{C8234B61-39B2-4B09-AD3E-3D70E30B08F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>
 
@@ -1846,28 +1953,28 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
-        <f>SUM(Sheet1!C3:C500)/COUNT(Sheet1!C3:C500)</f>
-        <v>0.8</v>
+        <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" s="2">
-        <f>SUM(Sheet1!D3:D500)/COUNT(Sheet1!D3:D500)</f>
-        <v>1.5</v>
+        <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
+        <v>1.4848484848484849</v>
       </c>
       <c r="D3" s="2">
-        <f>SUM(Sheet1!E3:E500)/COUNT(Sheet1!E3:E500)</f>
-        <v>227.46875</v>
+        <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
+        <v>221.78787878787878</v>
       </c>
       <c r="E3" s="2">
-        <f>SUM(Sheet1!F3:F500)/COUNT(Sheet1!F3:F500)</f>
-        <v>0.40626874999999996</v>
+        <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
+        <v>0.40729090909090904</v>
       </c>
       <c r="F3" s="2">
-        <f>SUM(Sheet1!G3:G500)/COUNT(Sheet1!G3:G500)</f>
-        <v>20.102413793103448</v>
+        <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
+        <v>19.969000000000001</v>
       </c>
       <c r="G3" s="2">
-        <f>SUM(Sheet1!H3:H500)/COUNT(Sheet1!H3:H500)</f>
-        <v>0.33857586206896551</v>
+        <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
+        <v>0.32963333333333333</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\LeetCodes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221AC5FE-E2E2-4041-B7EB-70D1E0BF17A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E76166-2701-4C32-8567-B0CC90DE1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <si>
     <t>day</t>
   </si>
@@ -322,6 +322,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-bits/submissions/1080554417/</t>
+  </si>
+  <si>
+    <t>Number of 1 Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-1-bits/submissions/1081368131/</t>
   </si>
 </sst>
 </file>
@@ -705,8 +711,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1807,6 +1813,30 @@
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
+      </c>
+      <c r="B45" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>35</v>
+      </c>
+      <c r="F45">
+        <v>0.2</v>
+      </c>
+      <c r="G45">
+        <v>16.2</v>
+      </c>
+      <c r="H45">
+        <v>0.3</v>
+      </c>
+      <c r="I45" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
@@ -1904,9 +1934,10 @@
     <hyperlink ref="B43" r:id="rId21" display="https://leetcode.com/problems/customers-who-never-order/" xr:uid="{B284F064-0CA4-44F8-AF58-E4FD65777595}"/>
     <hyperlink ref="B27" r:id="rId22" display="https://leetcode.com/problems/path-sum" xr:uid="{1DC767CF-5DB3-45C4-9814-B9B93574C7C5}"/>
     <hyperlink ref="B44" r:id="rId23" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{C8234B61-39B2-4B09-AD3E-3D70E30B08F9}"/>
+    <hyperlink ref="B45" r:id="rId24" display="https://leetcode.com/problems/number-of-1-bits" xr:uid="{63753F1D-A352-4833-BF68-6215B845778D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId24"/>
+  <pageSetup orientation="portrait" r:id="rId25"/>
 </worksheet>
 </file>
 
@@ -1954,27 +1985,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.7857142857142857</v>
+        <v>0.79069767441860461</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.4848484848484849</v>
+        <v>1.4705882352941178</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>221.78787878787878</v>
+        <v>216.29411764705881</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.40729090909090904</v>
+        <v>0.40119411764705876</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>19.969000000000001</v>
+        <v>19.847419354838713</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.32963333333333333</v>
+        <v>0.32867741935483868</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53E76166-2701-4C32-8567-B0CC90DE1D46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41AC3B-6974-405F-98B4-863108F3DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>day</t>
   </si>
@@ -328,6 +328,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-1-bits/submissions/1081368131/</t>
+  </si>
+  <si>
+    <t>Valid Phone Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-phone-numbers/description/</t>
   </si>
 </sst>
 </file>
@@ -711,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1842,6 +1848,12 @@
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
+      </c>
+      <c r="B46" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="I46" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
@@ -1935,9 +1947,10 @@
     <hyperlink ref="B27" r:id="rId22" display="https://leetcode.com/problems/path-sum" xr:uid="{1DC767CF-5DB3-45C4-9814-B9B93574C7C5}"/>
     <hyperlink ref="B44" r:id="rId23" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{C8234B61-39B2-4B09-AD3E-3D70E30B08F9}"/>
     <hyperlink ref="B45" r:id="rId24" display="https://leetcode.com/problems/number-of-1-bits" xr:uid="{63753F1D-A352-4833-BF68-6215B845778D}"/>
+    <hyperlink ref="B46" r:id="rId25" display="https://leetcode.com/problems/valid-phone-numbers/" xr:uid="{130A92A1-873A-46AD-8452-AF0ED31F2D73}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId25"/>
+  <pageSetup orientation="portrait" r:id="rId26"/>
 </worksheet>
 </file>
 

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C41AC3B-6974-405F-98B4-863108F3DE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962B2083-6438-47F5-AAEF-18BD8791C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
   <si>
     <t>day</t>
   </si>
@@ -334,6 +334,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-phone-numbers/description/</t>
+  </si>
+  <si>
+    <t>Delete Duplicate Emails</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/delete-duplicate-emails/submissions/</t>
   </si>
 </sst>
 </file>
@@ -717,8 +723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1859,6 +1865,30 @@
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
+      </c>
+      <c r="B47" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>2</v>
+      </c>
+      <c r="E47">
+        <v>447</v>
+      </c>
+      <c r="F47">
+        <v>0.25</v>
+      </c>
+      <c r="G47">
+        <v>61.19</v>
+      </c>
+      <c r="H47">
+        <v>0.51</v>
+      </c>
+      <c r="I47" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
@@ -1948,9 +1978,10 @@
     <hyperlink ref="B44" r:id="rId23" display="https://leetcode.com/problems/reverse-bits/" xr:uid="{C8234B61-39B2-4B09-AD3E-3D70E30B08F9}"/>
     <hyperlink ref="B45" r:id="rId24" display="https://leetcode.com/problems/number-of-1-bits" xr:uid="{63753F1D-A352-4833-BF68-6215B845778D}"/>
     <hyperlink ref="B46" r:id="rId25" display="https://leetcode.com/problems/valid-phone-numbers/" xr:uid="{130A92A1-873A-46AD-8452-AF0ED31F2D73}"/>
+    <hyperlink ref="B47" r:id="rId26" display="https://leetcode.com/problems/delete-duplicate-emails/" xr:uid="{E70DF819-488A-4DD3-9311-D21E6CBDE780}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId26"/>
+  <pageSetup orientation="portrait" r:id="rId27"/>
 </worksheet>
 </file>
 
@@ -1998,27 +2029,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79069767441860461</v>
+        <v>0.79545454545454541</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.4705882352941178</v>
+        <v>1.4857142857142858</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>216.29411764705881</v>
+        <v>222.88571428571427</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.40119411764705876</v>
+        <v>0.39687428571428562</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>19.847419354838713</v>
+        <v>21.139375000000001</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.32867741935483868</v>
+        <v>0.33434375</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{962B2083-6438-47F5-AAEF-18BD8791C52C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA7E34-EC79-483D-8AD4-EBFA88FAC571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
   <si>
     <t>day</t>
   </si>
@@ -340,6 +340,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/delete-duplicate-emails/submissions/</t>
+  </si>
+  <si>
+    <t>Rising Temperature</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rising-temperature/submissions/1083897356/</t>
   </si>
 </sst>
 </file>
@@ -723,8 +729,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1894,6 +1900,30 @@
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
+      </c>
+      <c r="B48" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>5</v>
+      </c>
+      <c r="E48">
+        <v>676</v>
+      </c>
+      <c r="F48">
+        <v>0.91</v>
+      </c>
+      <c r="G48">
+        <v>61.99</v>
+      </c>
+      <c r="H48">
+        <v>0.31</v>
+      </c>
+      <c r="I48" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
@@ -1979,9 +2009,10 @@
     <hyperlink ref="B45" r:id="rId24" display="https://leetcode.com/problems/number-of-1-bits" xr:uid="{63753F1D-A352-4833-BF68-6215B845778D}"/>
     <hyperlink ref="B46" r:id="rId25" display="https://leetcode.com/problems/valid-phone-numbers/" xr:uid="{130A92A1-873A-46AD-8452-AF0ED31F2D73}"/>
     <hyperlink ref="B47" r:id="rId26" display="https://leetcode.com/problems/delete-duplicate-emails/" xr:uid="{E70DF819-488A-4DD3-9311-D21E6CBDE780}"/>
+    <hyperlink ref="B48" r:id="rId27" display="https://leetcode.com/problems/rising-temperature/" xr:uid="{59B31695-C530-45E4-A1E0-820944B1212E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId27"/>
+  <pageSetup orientation="portrait" r:id="rId28"/>
 </worksheet>
 </file>
 
@@ -2029,27 +2060,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79545454545454541</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.4857142857142858</v>
+        <v>1.5833333333333333</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>222.88571428571427</v>
+        <v>235.47222222222223</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.39687428571428562</v>
+        <v>0.4111277777777777</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>21.139375000000001</v>
+        <v>22.377272727272729</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.33434375</v>
+        <v>0.33360606060606063</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3EA7E34-EC79-483D-8AD4-EBFA88FAC571}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4FC09-1438-4B04-8AFE-DFA27754992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-135" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
   <si>
     <t>day</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/rising-temperature/submissions/1083897356/</t>
+  </si>
+  <si>
+    <t>Happy Number</t>
   </si>
 </sst>
 </file>
@@ -730,7 +733,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1926,57 +1929,63 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2010,9 +2019,10 @@
     <hyperlink ref="B46" r:id="rId25" display="https://leetcode.com/problems/valid-phone-numbers/" xr:uid="{130A92A1-873A-46AD-8452-AF0ED31F2D73}"/>
     <hyperlink ref="B47" r:id="rId26" display="https://leetcode.com/problems/delete-duplicate-emails/" xr:uid="{E70DF819-488A-4DD3-9311-D21E6CBDE780}"/>
     <hyperlink ref="B48" r:id="rId27" display="https://leetcode.com/problems/rising-temperature/" xr:uid="{59B31695-C530-45E4-A1E0-820944B1212E}"/>
+    <hyperlink ref="B49" r:id="rId28" display="https://leetcode.com/problems/happy-number/" xr:uid="{AE195737-CD70-47F3-906B-F94ED634ED2D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId28"/>
+  <pageSetup orientation="portrait" r:id="rId29"/>
 </worksheet>
 </file>
 
@@ -2060,7 +2070,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2A4FC09-1438-4B04-8AFE-DFA27754992D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAAF71-0487-449A-A844-6B7E3416133E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="3975" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
   <si>
     <t>day</t>
   </si>
@@ -349,6 +349,12 @@
   </si>
   <si>
     <t>Happy Number</t>
+  </si>
+  <si>
+    <t>Remove Linked List Elements</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-linked-list-elements/submissions/1086397533/</t>
   </si>
 </sst>
 </file>
@@ -732,8 +738,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="I50" sqref="I50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1929,7 +1935,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1940,52 +1946,76 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B50" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50">
+        <v>73</v>
+      </c>
+      <c r="F50">
+        <v>0.86</v>
+      </c>
+      <c r="G50">
+        <v>22</v>
+      </c>
+      <c r="H50">
+        <v>0.94</v>
+      </c>
+      <c r="I50" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
       </c>
@@ -2020,9 +2050,10 @@
     <hyperlink ref="B47" r:id="rId26" display="https://leetcode.com/problems/delete-duplicate-emails/" xr:uid="{E70DF819-488A-4DD3-9311-D21E6CBDE780}"/>
     <hyperlink ref="B48" r:id="rId27" display="https://leetcode.com/problems/rising-temperature/" xr:uid="{59B31695-C530-45E4-A1E0-820944B1212E}"/>
     <hyperlink ref="B49" r:id="rId28" display="https://leetcode.com/problems/happy-number/" xr:uid="{AE195737-CD70-47F3-906B-F94ED634ED2D}"/>
+    <hyperlink ref="B50" r:id="rId29" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{5845B5FD-7CAF-4F79-8741-3AAD834B48D0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId29"/>
+  <pageSetup orientation="portrait" r:id="rId30"/>
 </worksheet>
 </file>
 
@@ -2070,27 +2101,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78260869565217395</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5833333333333333</v>
+        <v>1.5675675675675675</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>235.47222222222223</v>
+        <v>231.08108108108109</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.4111277777777777</v>
+        <v>0.42325945945945936</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>22.377272727272729</v>
+        <v>22.366176470588236</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.33360606060606063</v>
+        <v>0.35144117647058826</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9DAAF71-0487-449A-A844-6B7E3416133E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CA5F1-C509-4B97-AF16-0FAD85E43D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3975" yWindow="2205" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>day</t>
   </si>
@@ -355,6 +355,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/remove-linked-list-elements/submissions/1086397533/</t>
+  </si>
+  <si>
+    <t>Isomorphic Strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/isomorphic-strings/submissions/1087078218/</t>
   </si>
 </sst>
 </file>
@@ -739,7 +745,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="I50" sqref="I50"/>
+      <selection activeCell="G55" sqref="G55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,6 +1984,30 @@
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>49</v>
+      </c>
+      <c r="B51" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51">
+        <v>46</v>
+      </c>
+      <c r="F51">
+        <v>0.4</v>
+      </c>
+      <c r="G51">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="H51">
+        <v>0.42</v>
+      </c>
+      <c r="I51" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
@@ -2051,9 +2081,10 @@
     <hyperlink ref="B48" r:id="rId27" display="https://leetcode.com/problems/rising-temperature/" xr:uid="{59B31695-C530-45E4-A1E0-820944B1212E}"/>
     <hyperlink ref="B49" r:id="rId28" display="https://leetcode.com/problems/happy-number/" xr:uid="{AE195737-CD70-47F3-906B-F94ED634ED2D}"/>
     <hyperlink ref="B50" r:id="rId29" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{5845B5FD-7CAF-4F79-8741-3AAD834B48D0}"/>
+    <hyperlink ref="B51" r:id="rId30" display="https://leetcode.com/problems/isomorphic-strings/" xr:uid="{05553CA3-8DF4-4719-8B18-370E9DB50A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId30"/>
+  <pageSetup orientation="portrait" r:id="rId31"/>
 </worksheet>
 </file>
 
@@ -2101,27 +2132,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78723404255319152</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5675675675675675</v>
+        <v>1.5526315789473684</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>231.08108108108109</v>
+        <v>226.21052631578948</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.42325945945945936</v>
+        <v>0.42264736842105255</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>22.366176470588236</v>
+        <v>22.201428571428572</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.35144117647058826</v>
+        <v>0.35339999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B2CA5F1-C509-4B97-AF16-0FAD85E43D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DBC19-9AA6-41C8-B7F4-C17FB26C836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="7755" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -745,7 +745,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="G55" sqref="G55"/>
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2093,7 +2093,7 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258DBC19-9AA6-41C8-B7F4-C17FB26C836B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2927CA9-D304-42CD-B661-C4C07E9D2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7755" yWindow="2415" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="4245" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>day</t>
   </si>
@@ -361,6 +361,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/isomorphic-strings/submissions/1087078218/</t>
+  </si>
+  <si>
+    <t>Reverse Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-linked-list/submissions/1088037333/</t>
   </si>
 </sst>
 </file>
@@ -744,8 +750,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2013,6 +2019,30 @@
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>50</v>
+      </c>
+      <c r="B52" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52">
+        <v>54</v>
+      </c>
+      <c r="F52">
+        <v>0.92</v>
+      </c>
+      <c r="G52">
+        <v>18.7</v>
+      </c>
+      <c r="H52">
+        <v>0.83</v>
+      </c>
+      <c r="I52" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
@@ -2082,9 +2112,10 @@
     <hyperlink ref="B49" r:id="rId28" display="https://leetcode.com/problems/happy-number/" xr:uid="{AE195737-CD70-47F3-906B-F94ED634ED2D}"/>
     <hyperlink ref="B50" r:id="rId29" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{5845B5FD-7CAF-4F79-8741-3AAD834B48D0}"/>
     <hyperlink ref="B51" r:id="rId30" display="https://leetcode.com/problems/isomorphic-strings/" xr:uid="{05553CA3-8DF4-4719-8B18-370E9DB50A1C}"/>
+    <hyperlink ref="B52" r:id="rId31" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{64BAC716-BDC1-4071-B01E-7D14E2F1B268}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId31"/>
+  <pageSetup orientation="portrait" r:id="rId32"/>
 </worksheet>
 </file>
 
@@ -2092,7 +2123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2132,27 +2163,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79166666666666663</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5526315789473684</v>
+        <v>1.5384615384615385</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>226.21052631578948</v>
+        <v>221.7948717948718</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.42264736842105255</v>
+        <v>0.43539999999999995</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>22.201428571428572</v>
+        <v>22.104166666666671</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.35339999999999999</v>
+        <v>0.3666388888888889</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2927CA9-D304-42CD-B661-C4C07E9D2FB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E66E21-5EAE-4DCB-BD9D-8678A00F64D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4245" yWindow="2325" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="3195" yWindow="2220" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
   <si>
     <t>day</t>
   </si>
@@ -367,6 +367,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-linked-list/submissions/1088037333/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate/submissions/1088702686/</t>
+  </si>
+  <si>
+    <t>Contains Duplicate</t>
   </si>
 </sst>
 </file>
@@ -750,8 +756,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2048,6 +2054,30 @@
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>51</v>
+      </c>
+      <c r="B53" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53">
+        <v>479</v>
+      </c>
+      <c r="F53">
+        <v>0.51</v>
+      </c>
+      <c r="G53">
+        <v>308</v>
+      </c>
+      <c r="H53">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="I53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
@@ -2113,9 +2143,10 @@
     <hyperlink ref="B50" r:id="rId29" display="https://leetcode.com/problems/remove-linked-list-elements/" xr:uid="{5845B5FD-7CAF-4F79-8741-3AAD834B48D0}"/>
     <hyperlink ref="B51" r:id="rId30" display="https://leetcode.com/problems/isomorphic-strings/" xr:uid="{05553CA3-8DF4-4719-8B18-370E9DB50A1C}"/>
     <hyperlink ref="B52" r:id="rId31" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{64BAC716-BDC1-4071-B01E-7D14E2F1B268}"/>
+    <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{D0DA0E09-DFDD-4ED0-B693-CE37AFAB4DD7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId32"/>
+  <pageSetup orientation="portrait" r:id="rId33"/>
 </worksheet>
 </file>
 
@@ -2123,7 +2154,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
@@ -2163,27 +2194,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79591836734693877</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5384615384615385</v>
+        <v>1.5249999999999999</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>221.7948717948718</v>
+        <v>228.22499999999999</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.43539999999999995</v>
+        <v>0.43726500000000001</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>22.104166666666671</v>
+        <v>29.831081081081081</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.3666388888888889</v>
+        <v>0.36456756756756753</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E66E21-5EAE-4DCB-BD9D-8678A00F64D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF8DB8-458A-4FB0-945B-9010A7B1D164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3195" yWindow="2220" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>day</t>
   </si>
@@ -373,6 +373,12 @@
   </si>
   <si>
     <t>Contains Duplicate</t>
+  </si>
+  <si>
+    <t>Contains Duplicate II</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/contains-duplicate-ii/submissions/1089436185/</t>
   </si>
 </sst>
 </file>
@@ -757,7 +763,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2083,6 +2089,30 @@
     <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
+      </c>
+      <c r="B54" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54">
+        <v>1</v>
+      </c>
+      <c r="D54">
+        <v>4</v>
+      </c>
+      <c r="E54">
+        <v>603</v>
+      </c>
+      <c r="F54">
+        <v>0.92</v>
+      </c>
+      <c r="G54">
+        <v>34.840000000000003</v>
+      </c>
+      <c r="H54">
+        <v>0.94</v>
+      </c>
+      <c r="I54" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
@@ -2144,9 +2174,10 @@
     <hyperlink ref="B51" r:id="rId30" display="https://leetcode.com/problems/isomorphic-strings/" xr:uid="{05553CA3-8DF4-4719-8B18-370E9DB50A1C}"/>
     <hyperlink ref="B52" r:id="rId31" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{64BAC716-BDC1-4071-B01E-7D14E2F1B268}"/>
     <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{D0DA0E09-DFDD-4ED0-B693-CE37AFAB4DD7}"/>
+    <hyperlink ref="B54" r:id="rId33" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{19925A9D-0321-4E3A-998D-58DC83F31963}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId33"/>
+  <pageSetup orientation="portrait" r:id="rId34"/>
 </worksheet>
 </file>
 
@@ -2194,27 +2225,27 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.80392156862745101</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5249999999999999</v>
+        <v>1.5853658536585367</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
-        <v>228.22499999999999</v>
+        <v>237.36585365853659</v>
       </c>
       <c r="E3" s="2">
         <f>SUM(List!F3:F500)/COUNT(List!F3:F500)</f>
-        <v>0.43726500000000001</v>
+        <v>0.44903902439024396</v>
       </c>
       <c r="F3" s="2">
         <f>SUM(List!G3:G500)/COUNT(List!G3:G500)</f>
-        <v>29.831081081081081</v>
+        <v>29.962894736842102</v>
       </c>
       <c r="G3" s="2">
         <f>SUM(List!H3:H500)/COUNT(List!H3:H500)</f>
-        <v>0.36456756756756753</v>
+        <v>0.37971052631578944</v>
       </c>
     </row>
   </sheetData>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28EF8DB8-458A-4FB0-945B-9010A7B1D164}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D05B144-6633-4FE1-8801-02EE7A981B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3195" yWindow="2220" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="8985" yWindow="1575" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>day</t>
   </si>
@@ -379,6 +379,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/contains-duplicate-ii/submissions/1089436185/</t>
+  </si>
+  <si>
+    <t>Count Complete Tree Nodes</t>
   </si>
 </sst>
 </file>
@@ -763,7 +766,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="K49" sqref="K49"/>
+      <selection activeCell="E56" sqref="E56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2118,6 +2121,12 @@
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>53</v>
+      </c>
+      <c r="B55" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
@@ -2175,9 +2184,10 @@
     <hyperlink ref="B52" r:id="rId31" display="https://leetcode.com/problems/reverse-linked-list/" xr:uid="{64BAC716-BDC1-4071-B01E-7D14E2F1B268}"/>
     <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{D0DA0E09-DFDD-4ED0-B693-CE37AFAB4DD7}"/>
     <hyperlink ref="B54" r:id="rId33" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{19925A9D-0321-4E3A-998D-58DC83F31963}"/>
+    <hyperlink ref="B55" r:id="rId34" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{8C0EDE32-7283-442E-B70B-2F12EFA46E05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId34"/>
+  <pageSetup orientation="portrait" r:id="rId35"/>
 </worksheet>
 </file>
 
@@ -2225,7 +2235,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80392156862745101</v>
+        <v>0.78846153846153844</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D05B144-6633-4FE1-8801-02EE7A981B46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29696E1A-AB85-4F1E-B26B-36F71E7CBCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8985" yWindow="1575" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1275" yWindow="1020" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>day</t>
   </si>
@@ -382,6 +382,12 @@
   </si>
   <si>
     <t>Count Complete Tree Nodes</t>
+  </si>
+  <si>
+    <t>Implement Stack using Queues</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-stack-using-queues/submissions/1090591964/</t>
   </si>
 </sst>
 </file>
@@ -765,8 +771,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E56" sqref="E56"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2132,6 +2138,18 @@
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>54</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C56">
+        <v>1</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="I56" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -2185,9 +2203,10 @@
     <hyperlink ref="B53" r:id="rId32" display="https://leetcode.com/problems/contains-duplicate/" xr:uid="{D0DA0E09-DFDD-4ED0-B693-CE37AFAB4DD7}"/>
     <hyperlink ref="B54" r:id="rId33" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{19925A9D-0321-4E3A-998D-58DC83F31963}"/>
     <hyperlink ref="B55" r:id="rId34" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{8C0EDE32-7283-442E-B70B-2F12EFA46E05}"/>
+    <hyperlink ref="B56" r:id="rId35" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{4D882F15-A42E-4A41-84DF-B7AF5BB3A9F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId35"/>
+  <pageSetup orientation="portrait" r:id="rId36"/>
 </worksheet>
 </file>
 
@@ -2235,11 +2254,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78846153846153844</v>
+        <v>0.79245283018867929</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5853658536585367</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29696E1A-AB85-4F1E-B26B-36F71E7CBCB9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B18A6-4739-4698-B07C-A8A874CF789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1275" yWindow="1020" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
   <si>
     <t>day</t>
   </si>
@@ -388,6 +388,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-stack-using-queues/submissions/1090591964/</t>
+  </si>
+  <si>
+    <t>Invert Binary Tree</t>
   </si>
 </sst>
 </file>
@@ -772,7 +775,7 @@
   <dimension ref="A2:J59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+      <selection activeCell="G59" sqref="G59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2155,6 +2158,12 @@
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
+      </c>
+      <c r="B57" s="5" t="s">
+        <v>117</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
@@ -2204,9 +2213,10 @@
     <hyperlink ref="B54" r:id="rId33" display="https://leetcode.com/problems/contains-duplicate-ii/" xr:uid="{19925A9D-0321-4E3A-998D-58DC83F31963}"/>
     <hyperlink ref="B55" r:id="rId34" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{8C0EDE32-7283-442E-B70B-2F12EFA46E05}"/>
     <hyperlink ref="B56" r:id="rId35" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{4D882F15-A42E-4A41-84DF-B7AF5BB3A9F2}"/>
+    <hyperlink ref="B57" r:id="rId36" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{76CBC250-AA98-4584-A372-942F619A46ED}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId36"/>
+  <pageSetup orientation="portrait" r:id="rId37"/>
 </worksheet>
 </file>
 
@@ -2254,7 +2264,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79245283018867929</v>
+        <v>0.77777777777777779</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{248B18A6-4739-4698-B07C-A8A874CF789D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4B2A2-9072-4E8C-9D7B-C4FADD8353B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1275" yWindow="1020" windowWidth="21180" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
   <si>
     <t>day</t>
   </si>
@@ -391,6 +391,12 @@
   </si>
   <si>
     <t>Invert Binary Tree</t>
+  </si>
+  <si>
+    <t>Summary Ranges</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/summary-ranges/submissions/1092074327/</t>
   </si>
 </sst>
 </file>
@@ -774,8 +780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G59" sqref="G59"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2169,6 +2175,18 @@
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>56</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>2</v>
+      </c>
+      <c r="I58" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
@@ -2214,9 +2232,10 @@
     <hyperlink ref="B55" r:id="rId34" display="https://leetcode.com/problems/count-complete-tree-nodes/" xr:uid="{8C0EDE32-7283-442E-B70B-2F12EFA46E05}"/>
     <hyperlink ref="B56" r:id="rId35" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{4D882F15-A42E-4A41-84DF-B7AF5BB3A9F2}"/>
     <hyperlink ref="B57" r:id="rId36" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{76CBC250-AA98-4584-A372-942F619A46ED}"/>
+    <hyperlink ref="B58" r:id="rId37" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{7E475741-16D3-4F0C-A35E-4A720D7A6C91}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId37"/>
+  <pageSetup orientation="portrait" r:id="rId38"/>
 </worksheet>
 </file>
 
@@ -2264,11 +2283,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.77777777777777779</v>
+        <v>0.78181818181818186</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5714285714285714</v>
+        <v>1.5813953488372092</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EB4B2A2-9072-4E8C-9D7B-C4FADD8353B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF802C0-A7FA-4ABE-914A-B7DE038F804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
   <si>
     <t>day</t>
   </si>
@@ -397,6 +397,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/summary-ranges/submissions/1092074327/</t>
+  </si>
+  <si>
+    <t>Power of Two</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-two/submissions/1093210199/</t>
   </si>
 </sst>
 </file>
@@ -778,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J59"/>
+  <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C67" sqref="C67"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2192,6 +2198,108 @@
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>57</v>
+      </c>
+      <c r="B59" s="5" t="s">
+        <v>120</v>
+      </c>
+      <c r="C59">
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="I59" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -2233,9 +2341,10 @@
     <hyperlink ref="B56" r:id="rId35" display="https://leetcode.com/problems/implement-stack-using-queues/" xr:uid="{4D882F15-A42E-4A41-84DF-B7AF5BB3A9F2}"/>
     <hyperlink ref="B57" r:id="rId36" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{76CBC250-AA98-4584-A372-942F619A46ED}"/>
     <hyperlink ref="B58" r:id="rId37" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{7E475741-16D3-4F0C-A35E-4A720D7A6C91}"/>
+    <hyperlink ref="B59" r:id="rId38" display="https://leetcode.com/problems/power-of-two/" xr:uid="{95B3BD69-45E8-4868-999A-E94BA0458ACF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId38"/>
+  <pageSetup orientation="portrait" r:id="rId39"/>
 </worksheet>
 </file>
 
@@ -2243,8 +2352,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2283,11 +2392,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78181818181818186</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5813953488372092</v>
+        <v>1.5681818181818181</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACF802C0-A7FA-4ABE-914A-B7DE038F804D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5582E-FF43-4439-B4A5-CC7112E55881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
   <si>
     <t>day</t>
   </si>
@@ -403,6 +403,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/power-of-two/submissions/1093210199/</t>
+  </si>
+  <si>
+    <t>Implement Queue using Stacks</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/implement-queue-using-stacks/submissions/1094091742/</t>
   </si>
 </sst>
 </file>
@@ -786,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="H69" sqref="H69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2215,6 +2221,18 @@
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>58</v>
+      </c>
+      <c r="B60" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="I60" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
@@ -2342,9 +2360,10 @@
     <hyperlink ref="B57" r:id="rId36" display="https://leetcode.com/problems/invert-binary-tree/" xr:uid="{76CBC250-AA98-4584-A372-942F619A46ED}"/>
     <hyperlink ref="B58" r:id="rId37" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{7E475741-16D3-4F0C-A35E-4A720D7A6C91}"/>
     <hyperlink ref="B59" r:id="rId38" display="https://leetcode.com/problems/power-of-two/" xr:uid="{95B3BD69-45E8-4868-999A-E94BA0458ACF}"/>
+    <hyperlink ref="B60" r:id="rId39" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{4F04CE6B-4190-4D2B-A755-267C5B90163C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId39"/>
+  <pageSetup orientation="portrait" r:id="rId40"/>
 </worksheet>
 </file>
 
@@ -2352,7 +2371,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
@@ -2392,11 +2411,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.7857142857142857</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5681818181818181</v>
+        <v>1.5555555555555556</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2D5582E-FF43-4439-B4A5-CC7112E55881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5E63E-BFA5-41FB-899F-F1F40612787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
   <si>
     <t>day</t>
   </si>
@@ -409,6 +409,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/implement-queue-using-stacks/submissions/1094091742/</t>
+  </si>
+  <si>
+    <t>Palindrome Linked List</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/palindrome-linked-list/submissions/1094602219/</t>
   </si>
 </sst>
 </file>
@@ -793,7 +799,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H69" sqref="H69"/>
+      <selection activeCell="H68" sqref="H68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2238,6 +2244,18 @@
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="I61" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
@@ -2361,9 +2379,10 @@
     <hyperlink ref="B58" r:id="rId37" display="https://leetcode.com/problems/summary-ranges/" xr:uid="{7E475741-16D3-4F0C-A35E-4A720D7A6C91}"/>
     <hyperlink ref="B59" r:id="rId38" display="https://leetcode.com/problems/power-of-two/" xr:uid="{95B3BD69-45E8-4868-999A-E94BA0458ACF}"/>
     <hyperlink ref="B60" r:id="rId39" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{4F04CE6B-4190-4D2B-A755-267C5B90163C}"/>
+    <hyperlink ref="B61" r:id="rId40" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{BC7D1DD3-25C9-4DF3-88E3-565F52A2CC99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId40"/>
+  <pageSetup orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -2411,11 +2430,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78947368421052633</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5555555555555556</v>
+        <v>1.5434782608695652</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AE5E63E-BFA5-41FB-899F-F1F40612787D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4A470-113B-4DAB-A047-CF5FAC97AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>day</t>
   </si>
@@ -415,6 +415,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/palindrome-linked-list/submissions/1094602219/</t>
+  </si>
+  <si>
+    <t>Valid Anagram</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/valid-anagram/submissions/1095286693/</t>
   </si>
 </sst>
 </file>
@@ -798,8 +804,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="H68" sqref="H68"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2261,6 +2267,18 @@
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>60</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="C62">
+        <v>2</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="I62" t="s">
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -2380,9 +2398,10 @@
     <hyperlink ref="B59" r:id="rId38" display="https://leetcode.com/problems/power-of-two/" xr:uid="{95B3BD69-45E8-4868-999A-E94BA0458ACF}"/>
     <hyperlink ref="B60" r:id="rId39" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{4F04CE6B-4190-4D2B-A755-267C5B90163C}"/>
     <hyperlink ref="B61" r:id="rId40" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{BC7D1DD3-25C9-4DF3-88E3-565F52A2CC99}"/>
+    <hyperlink ref="B62" r:id="rId41" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{A8962A75-067B-445A-89B6-53480A991FB9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId41"/>
+  <pageSetup orientation="portrait" r:id="rId42"/>
 </worksheet>
 </file>
 
@@ -2391,7 +2410,7 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2430,11 +2449,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.7931034482758621</v>
+        <v>0.81355932203389836</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5434782608695652</v>
+        <v>1.5319148936170213</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AC4A470-113B-4DAB-A047-CF5FAC97AFCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EC2C7-9A78-4B9D-AD4F-5AC27167B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
   <si>
     <t>day</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-anagram/submissions/1095286693/</t>
+  </si>
+  <si>
+    <t>Binary Tree Paths</t>
   </si>
 </sst>
 </file>
@@ -804,8 +807,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2284,6 +2287,12 @@
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
@@ -2399,9 +2408,10 @@
     <hyperlink ref="B60" r:id="rId39" display="https://leetcode.com/problems/implement-queue-using-stacks/" xr:uid="{4F04CE6B-4190-4D2B-A755-267C5B90163C}"/>
     <hyperlink ref="B61" r:id="rId40" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{BC7D1DD3-25C9-4DF3-88E3-565F52A2CC99}"/>
     <hyperlink ref="B62" r:id="rId41" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{A8962A75-067B-445A-89B6-53480A991FB9}"/>
+    <hyperlink ref="B63" r:id="rId42" display="https://leetcode.com/problems/binary-tree-paths/" xr:uid="{206B0DF0-9222-45C4-B0DC-B529A6702C0E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId42"/>
+  <pageSetup orientation="portrait" r:id="rId43"/>
 </worksheet>
 </file>
 
@@ -2449,7 +2459,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.81355932203389836</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{457EC2C7-9A78-4B9D-AD4F-5AC27167B55E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79654E-BEFF-48F9-841F-63C0802A2DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>day</t>
   </si>
@@ -424,6 +424,12 @@
   </si>
   <si>
     <t>Binary Tree Paths</t>
+  </si>
+  <si>
+    <t>Add Digits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-digits/submissions/1096682407/</t>
   </si>
 </sst>
 </file>
@@ -807,8 +813,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F67" sqref="F67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2298,6 +2304,18 @@
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>62</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="I64" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
@@ -2409,9 +2427,10 @@
     <hyperlink ref="B61" r:id="rId40" display="https://leetcode.com/problems/palindrome-linked-list/" xr:uid="{BC7D1DD3-25C9-4DF3-88E3-565F52A2CC99}"/>
     <hyperlink ref="B62" r:id="rId41" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{A8962A75-067B-445A-89B6-53480A991FB9}"/>
     <hyperlink ref="B63" r:id="rId42" display="https://leetcode.com/problems/binary-tree-paths/" xr:uid="{206B0DF0-9222-45C4-B0DC-B529A6702C0E}"/>
+    <hyperlink ref="B64" r:id="rId43" display="https://leetcode.com/problems/add-digits/" xr:uid="{9426B225-CB80-4CCE-9E21-CF85522C6DB2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId43"/>
+  <pageSetup orientation="portrait" r:id="rId44"/>
 </worksheet>
 </file>
 
@@ -2459,11 +2478,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.80327868852459017</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5319148936170213</v>
+        <v>1.5208333333333333</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF79654E-BEFF-48F9-841F-63C0802A2DC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE714B-E819-401B-8B0A-533B0AE5CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
   <si>
     <t>day</t>
   </si>
@@ -430,6 +430,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/add-digits/submissions/1096682407/</t>
+  </si>
+  <si>
+    <t>Ugly Number</t>
   </si>
 </sst>
 </file>
@@ -813,8 +816,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F67" sqref="F67"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2318,67 +2321,73 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B65" s="5" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
     </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2428,9 +2437,10 @@
     <hyperlink ref="B62" r:id="rId41" display="https://leetcode.com/problems/valid-anagram/" xr:uid="{A8962A75-067B-445A-89B6-53480A991FB9}"/>
     <hyperlink ref="B63" r:id="rId42" display="https://leetcode.com/problems/binary-tree-paths/" xr:uid="{206B0DF0-9222-45C4-B0DC-B529A6702C0E}"/>
     <hyperlink ref="B64" r:id="rId43" display="https://leetcode.com/problems/add-digits/" xr:uid="{9426B225-CB80-4CCE-9E21-CF85522C6DB2}"/>
+    <hyperlink ref="B65" r:id="rId44" display="https://leetcode.com/problems/ugly-number/" xr:uid="{612DEA76-71A9-4BA2-A041-CD635A545A7D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId44"/>
+  <pageSetup orientation="portrait" r:id="rId45"/>
 </worksheet>
 </file>
 
@@ -2478,7 +2488,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80327868852459017</v>
+        <v>0.79032258064516125</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06AE714B-E819-401B-8B0A-533B0AE5CA6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C855621-9DCA-4A8F-B8F1-8309F3F015D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>day</t>
   </si>
@@ -433,6 +433,12 @@
   </si>
   <si>
     <t>Ugly Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/missing-number/submissions/1098219864/</t>
+  </si>
+  <si>
+    <t>Missing Number</t>
   </si>
 </sst>
 </file>
@@ -816,8 +822,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2327,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>63</v>
       </c>
@@ -2332,62 +2338,74 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>64</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B66" s="5" t="s">
+        <v>133</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="I66" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>68</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
       </c>
@@ -2438,9 +2456,10 @@
     <hyperlink ref="B63" r:id="rId42" display="https://leetcode.com/problems/binary-tree-paths/" xr:uid="{206B0DF0-9222-45C4-B0DC-B529A6702C0E}"/>
     <hyperlink ref="B64" r:id="rId43" display="https://leetcode.com/problems/add-digits/" xr:uid="{9426B225-CB80-4CCE-9E21-CF85522C6DB2}"/>
     <hyperlink ref="B65" r:id="rId44" display="https://leetcode.com/problems/ugly-number/" xr:uid="{612DEA76-71A9-4BA2-A041-CD635A545A7D}"/>
+    <hyperlink ref="B66" r:id="rId45" display="https://leetcode.com/problems/missing-number/" xr:uid="{32150D65-6943-4D95-9C35-4CF854A953AE}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId45"/>
+  <pageSetup orientation="portrait" r:id="rId46"/>
 </worksheet>
 </file>
 
@@ -2488,11 +2507,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79032258064516125</v>
+        <v>0.79365079365079361</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5208333333333333</v>
+        <v>1.510204081632653</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C855621-9DCA-4A8F-B8F1-8309F3F015D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD21508-EB5B-46A3-AA40-4641E5F79448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="645" yWindow="675" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
   <si>
     <t>day</t>
   </si>
@@ -439,6 +439,12 @@
   </si>
   <si>
     <t>Missing Number</t>
+  </si>
+  <si>
+    <t>First Bad Version</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-bad-version/submissions/1098993829/</t>
   </si>
 </sst>
 </file>
@@ -823,7 +829,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="C75" sqref="C75"/>
+      <selection activeCell="I73" sqref="I73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2358,6 +2364,18 @@
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>65</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C67">
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="I67" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
@@ -2457,9 +2475,10 @@
     <hyperlink ref="B64" r:id="rId43" display="https://leetcode.com/problems/add-digits/" xr:uid="{9426B225-CB80-4CCE-9E21-CF85522C6DB2}"/>
     <hyperlink ref="B65" r:id="rId44" display="https://leetcode.com/problems/ugly-number/" xr:uid="{612DEA76-71A9-4BA2-A041-CD635A545A7D}"/>
     <hyperlink ref="B66" r:id="rId45" display="https://leetcode.com/problems/missing-number/" xr:uid="{32150D65-6943-4D95-9C35-4CF854A953AE}"/>
+    <hyperlink ref="B67" r:id="rId46" display="https://leetcode.com/problems/first-bad-version/" xr:uid="{E295D543-822D-43B6-894E-C3DAC2F0B6CD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId46"/>
+  <pageSetup orientation="portrait" r:id="rId47"/>
 </worksheet>
 </file>
 
@@ -2507,11 +2526,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79365079365079361</v>
+        <v>0.796875</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.510204081632653</v>
+        <v>1.5</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BD21508-EB5B-46A3-AA40-4641E5F79448}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE9D76-C82D-4951-B743-518F2EC22F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>day</t>
   </si>
@@ -445,6 +445,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/first-bad-version/submissions/1098993829/</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
   </si>
 </sst>
 </file>
@@ -829,7 +832,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I73" sqref="I73"/>
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2381,6 +2384,12 @@
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -2476,9 +2485,10 @@
     <hyperlink ref="B65" r:id="rId44" display="https://leetcode.com/problems/ugly-number/" xr:uid="{612DEA76-71A9-4BA2-A041-CD635A545A7D}"/>
     <hyperlink ref="B66" r:id="rId45" display="https://leetcode.com/problems/missing-number/" xr:uid="{32150D65-6943-4D95-9C35-4CF854A953AE}"/>
     <hyperlink ref="B67" r:id="rId46" display="https://leetcode.com/problems/first-bad-version/" xr:uid="{E295D543-822D-43B6-894E-C3DAC2F0B6CD}"/>
+    <hyperlink ref="B68" r:id="rId47" display="https://leetcode.com/problems/move-zeroes/" xr:uid="{3ECE3C48-C3DD-4B86-8A0B-FDAB03EA1CD0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId47"/>
+  <pageSetup orientation="portrait" r:id="rId48"/>
 </worksheet>
 </file>
 
@@ -2526,7 +2536,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.796875</v>
+        <v>0.7846153846153846</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEE9D76-C82D-4951-B743-518F2EC22F9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B3FB8A-FCEC-4B27-98A6-1DA16B05278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
   <si>
     <t>day</t>
   </si>
@@ -448,6 +448,12 @@
   </si>
   <si>
     <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>Word Pattern</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/word-pattern/submissions/1101106881/</t>
   </si>
 </sst>
 </file>
@@ -832,7 +838,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2395,6 +2401,18 @@
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>67</v>
+      </c>
+      <c r="B69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="I69" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
@@ -2486,9 +2504,10 @@
     <hyperlink ref="B66" r:id="rId45" display="https://leetcode.com/problems/missing-number/" xr:uid="{32150D65-6943-4D95-9C35-4CF854A953AE}"/>
     <hyperlink ref="B67" r:id="rId46" display="https://leetcode.com/problems/first-bad-version/" xr:uid="{E295D543-822D-43B6-894E-C3DAC2F0B6CD}"/>
     <hyperlink ref="B68" r:id="rId47" display="https://leetcode.com/problems/move-zeroes/" xr:uid="{3ECE3C48-C3DD-4B86-8A0B-FDAB03EA1CD0}"/>
+    <hyperlink ref="B69" r:id="rId48" display="https://leetcode.com/problems/word-pattern/" xr:uid="{32544889-5449-46FE-AE0E-D55CB5785381}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId48"/>
+  <pageSetup orientation="portrait" r:id="rId49"/>
 </worksheet>
 </file>
 
@@ -2536,11 +2555,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.7846153846153846</v>
+        <v>0.81818181818181823</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5</v>
+        <v>1.4901960784313726</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6B3FB8A-FCEC-4B27-98A6-1DA16B05278C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECE8AE-20C7-4ECC-8EF0-4E35DE945530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="345" yWindow="1095" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>day</t>
   </si>
@@ -454,6 +454,18 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/word-pattern/submissions/1101106881/</t>
+  </si>
+  <si>
+    <t>Nim Game</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/nim-game/submissions/1101481449/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/range-sum-query-immutable/submissions/1102338452/</t>
+  </si>
+  <si>
+    <t>Range Sum Query - Immutable</t>
   </si>
 </sst>
 </file>
@@ -837,8 +849,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="I75" sqref="I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2305,10 +2317,10 @@
         <v>126</v>
       </c>
       <c r="C62">
+        <v>1</v>
+      </c>
+      <c r="D62">
         <v>2</v>
-      </c>
-      <c r="D62">
-        <v>1</v>
       </c>
       <c r="I62" t="s">
         <v>127</v>
@@ -2406,10 +2418,10 @@
         <v>137</v>
       </c>
       <c r="C69">
+        <v>1</v>
+      </c>
+      <c r="D69">
         <v>3</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
       </c>
       <c r="I69" t="s">
         <v>138</v>
@@ -2419,10 +2431,34 @@
       <c r="A70">
         <v>68</v>
       </c>
+      <c r="B70" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="I70" t="s">
+        <v>140</v>
+      </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="C71">
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="I71" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -2505,9 +2541,11 @@
     <hyperlink ref="B67" r:id="rId46" display="https://leetcode.com/problems/first-bad-version/" xr:uid="{E295D543-822D-43B6-894E-C3DAC2F0B6CD}"/>
     <hyperlink ref="B68" r:id="rId47" display="https://leetcode.com/problems/move-zeroes/" xr:uid="{3ECE3C48-C3DD-4B86-8A0B-FDAB03EA1CD0}"/>
     <hyperlink ref="B69" r:id="rId48" display="https://leetcode.com/problems/word-pattern/" xr:uid="{32544889-5449-46FE-AE0E-D55CB5785381}"/>
+    <hyperlink ref="B70" r:id="rId49" display="https://leetcode.com/problems/nim-game/" xr:uid="{1E05D1A1-FBC7-4D52-AFBF-AF0E99B67504}"/>
+    <hyperlink ref="B71" r:id="rId50" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{9E26BA42-0548-47F7-959E-483987C5A78C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId49"/>
+  <pageSetup orientation="portrait" r:id="rId51"/>
 </worksheet>
 </file>
 
@@ -2516,7 +2554,7 @@
   <dimension ref="A2:G3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,11 +2593,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.81818181818181823</v>
+        <v>0.77941176470588236</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.4901960784313726</v>
+        <v>1.5283018867924529</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCECE8AE-20C7-4ECC-8EF0-4E35DE945530}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161950D-9C78-4EF9-B58F-470EBA6D0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1095" windowWidth="25815" windowHeight="13845" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>day</t>
   </si>
@@ -466,6 +466,12 @@
   </si>
   <si>
     <t>Range Sum Query - Immutable</t>
+  </si>
+  <si>
+    <t>Power of Three</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-three/submissions/1102421270/</t>
   </si>
 </sst>
 </file>
@@ -850,7 +856,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+      <selection activeCell="I72" sqref="I72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,6 +2470,18 @@
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>70</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>2</v>
+      </c>
+      <c r="I72" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
@@ -2543,9 +2561,10 @@
     <hyperlink ref="B69" r:id="rId48" display="https://leetcode.com/problems/word-pattern/" xr:uid="{32544889-5449-46FE-AE0E-D55CB5785381}"/>
     <hyperlink ref="B70" r:id="rId49" display="https://leetcode.com/problems/nim-game/" xr:uid="{1E05D1A1-FBC7-4D52-AFBF-AF0E99B67504}"/>
     <hyperlink ref="B71" r:id="rId50" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{9E26BA42-0548-47F7-959E-483987C5A78C}"/>
+    <hyperlink ref="B72" r:id="rId51" display="https://leetcode.com/problems/power-of-three/" xr:uid="{69B30FDE-388F-4D7A-BB38-C07F96CD7D4A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId51"/>
+  <pageSetup orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 
@@ -2593,11 +2612,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.77941176470588236</v>
+        <v>0.78260869565217395</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5283018867924529</v>
+        <v>1.537037037037037</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3161950D-9C78-4EF9-B58F-470EBA6D0142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4244743-2EBA-4BCC-8E47-029AA1462879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>day</t>
   </si>
@@ -472,6 +472,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/power-of-three/submissions/1102421270/</t>
+  </si>
+  <si>
+    <t>Counting Bits</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/counting-bits/submissions/1103572384/</t>
   </si>
 </sst>
 </file>
@@ -855,8 +861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="I72" sqref="I72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="I84" sqref="I84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2487,6 +2493,18 @@
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="C73">
+        <v>1</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="I73" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
@@ -2562,9 +2580,10 @@
     <hyperlink ref="B70" r:id="rId49" display="https://leetcode.com/problems/nim-game/" xr:uid="{1E05D1A1-FBC7-4D52-AFBF-AF0E99B67504}"/>
     <hyperlink ref="B71" r:id="rId50" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{9E26BA42-0548-47F7-959E-483987C5A78C}"/>
     <hyperlink ref="B72" r:id="rId51" display="https://leetcode.com/problems/power-of-three/" xr:uid="{69B30FDE-388F-4D7A-BB38-C07F96CD7D4A}"/>
+    <hyperlink ref="B73" r:id="rId52" display="https://leetcode.com/problems/counting-bits/" xr:uid="{7D3CDC68-E08C-41C4-A5B5-9E977ED87388}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId52"/>
+  <pageSetup orientation="portrait" r:id="rId53"/>
 </worksheet>
 </file>
 
@@ -2612,11 +2631,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78260869565217395</v>
+        <v>0.7857142857142857</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.537037037037037</v>
+        <v>1.5272727272727273</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4244743-2EBA-4BCC-8E47-029AA1462879}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C0ECF2-8CA5-4C0C-9F94-BF990E71D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
   <si>
     <t>day</t>
   </si>
@@ -478,6 +478,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/counting-bits/submissions/1103572384/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/power-of-four/submissions/1104502549/</t>
+  </si>
+  <si>
+    <t>Power of Four</t>
   </si>
 </sst>
 </file>
@@ -861,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="I84" sqref="I84"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2510,6 +2516,18 @@
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>72</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="I74" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
@@ -2581,9 +2599,10 @@
     <hyperlink ref="B71" r:id="rId50" display="https://leetcode.com/problems/range-sum-query-immutable/" xr:uid="{9E26BA42-0548-47F7-959E-483987C5A78C}"/>
     <hyperlink ref="B72" r:id="rId51" display="https://leetcode.com/problems/power-of-three/" xr:uid="{69B30FDE-388F-4D7A-BB38-C07F96CD7D4A}"/>
     <hyperlink ref="B73" r:id="rId52" display="https://leetcode.com/problems/counting-bits/" xr:uid="{7D3CDC68-E08C-41C4-A5B5-9E977ED87388}"/>
+    <hyperlink ref="B74" r:id="rId53" display="https://leetcode.com/problems/power-of-four/" xr:uid="{FE36CD04-D5AD-4BCB-96D9-8C4A14874EDA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId53"/>
+  <pageSetup orientation="portrait" r:id="rId54"/>
 </worksheet>
 </file>
 
@@ -2631,11 +2650,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.7857142857142857</v>
+        <v>0.78873239436619713</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5272727272727273</v>
+        <v>1.5178571428571428</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1C0ECF2-8CA5-4C0C-9F94-BF990E71D75F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9B73F-6AF0-490B-A7B9-74B4905214F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
   <si>
     <t>day</t>
   </si>
@@ -484,6 +484,12 @@
   </si>
   <si>
     <t>Power of Four</t>
+  </si>
+  <si>
+    <t>Reverse String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/submissions/1104962422/</t>
   </si>
 </sst>
 </file>
@@ -867,8 +873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J77"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="H78" sqref="H78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2533,6 +2539,18 @@
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>73</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C75">
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="I75" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
@@ -2600,9 +2618,10 @@
     <hyperlink ref="B72" r:id="rId51" display="https://leetcode.com/problems/power-of-three/" xr:uid="{69B30FDE-388F-4D7A-BB38-C07F96CD7D4A}"/>
     <hyperlink ref="B73" r:id="rId52" display="https://leetcode.com/problems/counting-bits/" xr:uid="{7D3CDC68-E08C-41C4-A5B5-9E977ED87388}"/>
     <hyperlink ref="B74" r:id="rId53" display="https://leetcode.com/problems/power-of-four/" xr:uid="{FE36CD04-D5AD-4BCB-96D9-8C4A14874EDA}"/>
+    <hyperlink ref="B75" r:id="rId54" display="https://leetcode.com/problems/reverse-string/" xr:uid="{1EAF4BE5-B1CF-429F-ADE1-96BAA47BAD85}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId54"/>
+  <pageSetup orientation="portrait" r:id="rId55"/>
 </worksheet>
 </file>
 
@@ -2650,11 +2669,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78873239436619713</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5178571428571428</v>
+        <v>1.5087719298245614</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10D9B73F-6AF0-490B-A7B9-74B4905214F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79017ABB-B845-429E-A161-AE24EB11D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
   <si>
     <t>day</t>
   </si>
@@ -490,6 +490,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-string/submissions/1104962422/</t>
+  </si>
+  <si>
+    <t>Reverse Vowels of a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-vowels-of-a-string/submissions/1105788750/</t>
   </si>
 </sst>
 </file>
@@ -874,7 +880,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="H78" sqref="H78"/>
+      <selection activeCell="J76" sqref="J76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,6 +2562,18 @@
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>2</v>
+      </c>
+      <c r="I76" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
@@ -2619,9 +2637,10 @@
     <hyperlink ref="B73" r:id="rId52" display="https://leetcode.com/problems/counting-bits/" xr:uid="{7D3CDC68-E08C-41C4-A5B5-9E977ED87388}"/>
     <hyperlink ref="B74" r:id="rId53" display="https://leetcode.com/problems/power-of-four/" xr:uid="{FE36CD04-D5AD-4BCB-96D9-8C4A14874EDA}"/>
     <hyperlink ref="B75" r:id="rId54" display="https://leetcode.com/problems/reverse-string/" xr:uid="{1EAF4BE5-B1CF-429F-ADE1-96BAA47BAD85}"/>
+    <hyperlink ref="B76" r:id="rId55" display="https://leetcode.com/problems/reverse-vowels-of-a-string/" xr:uid="{A544B11B-B818-49D5-AA8F-AA06941CFCB8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId55"/>
+  <pageSetup orientation="portrait" r:id="rId56"/>
 </worksheet>
 </file>
 
@@ -2669,11 +2688,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79166666666666663</v>
+        <v>0.79452054794520544</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5087719298245614</v>
+        <v>1.5172413793103448</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79017ABB-B845-429E-A161-AE24EB11D99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E51DCA5-4FB1-4611-BDF5-2234C0819DC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="660" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="155">
   <si>
     <t>day</t>
   </si>
@@ -496,6 +496,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-vowels-of-a-string/submissions/1105788750/</t>
+  </si>
+  <si>
+    <t>Ransom Note</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/ransom-note/submissions/1119784137/</t>
   </si>
 </sst>
 </file>
@@ -880,7 +886,7 @@
   <dimension ref="A2:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="J76" sqref="J76"/>
+      <selection activeCell="H80" sqref="H80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2579,6 +2585,18 @@
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>75</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C77">
+        <v>1</v>
+      </c>
+      <c r="D77">
+        <v>2</v>
+      </c>
+      <c r="I77" t="s">
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -2638,9 +2656,10 @@
     <hyperlink ref="B74" r:id="rId53" display="https://leetcode.com/problems/power-of-four/" xr:uid="{FE36CD04-D5AD-4BCB-96D9-8C4A14874EDA}"/>
     <hyperlink ref="B75" r:id="rId54" display="https://leetcode.com/problems/reverse-string/" xr:uid="{1EAF4BE5-B1CF-429F-ADE1-96BAA47BAD85}"/>
     <hyperlink ref="B76" r:id="rId55" display="https://leetcode.com/problems/reverse-vowels-of-a-string/" xr:uid="{A544B11B-B818-49D5-AA8F-AA06941CFCB8}"/>
+    <hyperlink ref="B77" r:id="rId56" display="https://leetcode.com/problems/ransom-note/" xr:uid="{FAB5A3E7-D1A5-49FD-9B45-856066ECE103}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId56"/>
+  <pageSetup orientation="portrait" r:id="rId57"/>
 </worksheet>
 </file>
 
@@ -2688,11 +2707,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79452054794520544</v>
+        <v>0.79729729729729726</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5172413793103448</v>
+        <v>1.5254237288135593</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D79E547-4F1D-4DE1-94AE-66817D95726C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4458D-FD77-466D-AE22-8F4C08ED6C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" activeTab="1" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
   <si>
     <t>day</t>
   </si>
@@ -520,6 +520,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-perfect-square/submissions/1107282882/</t>
+  </si>
+  <si>
+    <t>First Unique Character in a String</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/first-unique-character-in-a-string/submissions/1120539041/</t>
   </si>
 </sst>
 </file>
@@ -903,8 +909,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J81"/>
   <sheetViews>
-    <sheetView topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="G82" sqref="G82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2668,9 +2674,21 @@
         <v>154</v>
       </c>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>79</v>
+      </c>
+      <c r="B81" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81">
+        <v>1</v>
+      </c>
+      <c r="D81">
+        <v>3</v>
+      </c>
+      <c r="I81" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2734,9 +2752,10 @@
     <hyperlink ref="B79" r:id="rId57" display="https://leetcode.com/problems/valid-perfect-square" xr:uid="{0EA378B8-5A94-4539-9692-736EE6ED89F5}"/>
     <hyperlink ref="B78" r:id="rId58" display="https://leetcode.com/problems/intersection-of-two-arrays-ii" xr:uid="{2C6E74BF-F4EB-47C2-A24E-8E143A75F184}"/>
     <hyperlink ref="B77" r:id="rId59" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{928B56F5-113E-4F8D-97A8-33807AFF3046}"/>
+    <hyperlink ref="B81" r:id="rId60" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{9670B669-6216-42F4-B1ED-6C82C4C72643}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId60"/>
+  <pageSetup orientation="portrait" r:id="rId61"/>
 </worksheet>
 </file>
 
@@ -2744,7 +2763,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{474C32BF-24AC-4A70-BA6A-73A9C2809AF6}">
   <dimension ref="A2:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
@@ -2784,11 +2803,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80519480519480524</v>
+        <v>0.80769230769230771</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5483870967741935</v>
+        <v>1.5714285714285714</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CA4458D-FD77-466D-AE22-8F4C08ED6C5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0C2ED-1023-41C7-A10F-69A2C44A5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
   <si>
     <t>day</t>
   </si>
@@ -526,6 +526,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/first-unique-character-in-a-string/submissions/1120539041/</t>
+  </si>
+  <si>
+    <t>Find the Difference</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-the-difference/submissions/1120972687/</t>
   </si>
 </sst>
 </file>
@@ -907,10 +913,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J81"/>
+  <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
-      <selection activeCell="G82" sqref="G82"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2689,6 +2695,68 @@
       </c>
       <c r="I81" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>80</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C82">
+        <v>1</v>
+      </c>
+      <c r="D82">
+        <v>2</v>
+      </c>
+      <c r="I82" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -2753,9 +2821,10 @@
     <hyperlink ref="B78" r:id="rId58" display="https://leetcode.com/problems/intersection-of-two-arrays-ii" xr:uid="{2C6E74BF-F4EB-47C2-A24E-8E143A75F184}"/>
     <hyperlink ref="B77" r:id="rId59" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{928B56F5-113E-4F8D-97A8-33807AFF3046}"/>
     <hyperlink ref="B81" r:id="rId60" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{9670B669-6216-42F4-B1ED-6C82C4C72643}"/>
+    <hyperlink ref="B82" r:id="rId61" display="https://leetcode.com/problems/find-the-difference/" xr:uid="{78C30254-DAC5-4837-A7C6-EC8ECD029084}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId61"/>
+  <pageSetup orientation="portrait" r:id="rId62"/>
 </worksheet>
 </file>
 
@@ -2803,11 +2872,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80769230769230771</v>
+        <v>0.810126582278481</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5714285714285714</v>
+        <v>1.578125</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F0C2ED-1023-41C7-A10F-69A2C44A5DA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CA035-8DB9-46B4-9866-67C9AC24E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
   <si>
     <t>day</t>
   </si>
@@ -532,6 +532,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-the-difference/submissions/1120972687/</t>
+  </si>
+  <si>
+    <t>Is Subsequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/is-subsequence/submissions/1122188684/</t>
   </si>
 </sst>
 </file>
@@ -916,7 +922,7 @@
   <dimension ref="A2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2717,6 +2723,18 @@
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C83">
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <v>3</v>
+      </c>
+      <c r="I83" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
@@ -2822,9 +2840,10 @@
     <hyperlink ref="B77" r:id="rId59" display="https://leetcode.com/problems/intersection-of-two-arrays" xr:uid="{928B56F5-113E-4F8D-97A8-33807AFF3046}"/>
     <hyperlink ref="B81" r:id="rId60" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{9670B669-6216-42F4-B1ED-6C82C4C72643}"/>
     <hyperlink ref="B82" r:id="rId61" display="https://leetcode.com/problems/find-the-difference/" xr:uid="{78C30254-DAC5-4837-A7C6-EC8ECD029084}"/>
+    <hyperlink ref="B83" r:id="rId62" display="https://leetcode.com/problems/is-subsequence/" xr:uid="{A3CA29CB-659B-44EF-A562-09D4950B36A2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId62"/>
+  <pageSetup orientation="portrait" r:id="rId63"/>
 </worksheet>
 </file>
 
@@ -2872,11 +2891,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.810126582278481</v>
+        <v>0.8125</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.578125</v>
+        <v>1.6</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2CA035-8DB9-46B4-9866-67C9AC24E885}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7284F1-7A81-4D6F-A62B-FC15126DBB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
   <si>
     <t>day</t>
   </si>
@@ -538,6 +538,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/is-subsequence/submissions/1122188684/</t>
+  </si>
+  <si>
+    <t>Binary Watch</t>
   </si>
 </sst>
 </file>
@@ -921,8 +924,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
-      <selection activeCell="F86" sqref="F86"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2740,6 +2743,12 @@
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>82</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
@@ -2841,9 +2850,10 @@
     <hyperlink ref="B81" r:id="rId60" display="https://leetcode.com/problems/first-unique-character-in-a-string/" xr:uid="{9670B669-6216-42F4-B1ED-6C82C4C72643}"/>
     <hyperlink ref="B82" r:id="rId61" display="https://leetcode.com/problems/find-the-difference/" xr:uid="{78C30254-DAC5-4837-A7C6-EC8ECD029084}"/>
     <hyperlink ref="B83" r:id="rId62" display="https://leetcode.com/problems/is-subsequence/" xr:uid="{A3CA29CB-659B-44EF-A562-09D4950B36A2}"/>
+    <hyperlink ref="B84" r:id="rId63" display="https://leetcode.com/problems/binary-watch/" xr:uid="{DE864E7C-D7D7-4F20-AF57-126C514A50F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId63"/>
+  <pageSetup orientation="portrait" r:id="rId64"/>
 </worksheet>
 </file>
 
@@ -2891,7 +2901,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8125</v>
+        <v>0.80246913580246915</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7284F1-7A81-4D6F-A62B-FC15126DBB75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A1B49-8EB3-4D1A-ACE5-C79EE022F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>day</t>
   </si>
@@ -541,6 +541,12 @@
   </si>
   <si>
     <t>Binary Watch</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sum-of-left-leaves/submissions/1123503393/</t>
+  </si>
+  <si>
+    <t>Sum of Left Leaves</t>
   </si>
 </sst>
 </file>
@@ -924,8 +930,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
+      <selection activeCell="F88" sqref="F88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2754,6 +2760,18 @@
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>83</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85">
+        <v>1</v>
+      </c>
+      <c r="D85">
+        <v>2</v>
+      </c>
+      <c r="I85" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
@@ -2851,9 +2869,10 @@
     <hyperlink ref="B82" r:id="rId61" display="https://leetcode.com/problems/find-the-difference/" xr:uid="{78C30254-DAC5-4837-A7C6-EC8ECD029084}"/>
     <hyperlink ref="B83" r:id="rId62" display="https://leetcode.com/problems/is-subsequence/" xr:uid="{A3CA29CB-659B-44EF-A562-09D4950B36A2}"/>
     <hyperlink ref="B84" r:id="rId63" display="https://leetcode.com/problems/binary-watch/" xr:uid="{DE864E7C-D7D7-4F20-AF57-126C514A50F2}"/>
+    <hyperlink ref="B85" r:id="rId64" display="https://leetcode.com/problems/sum-of-left-leaves/" xr:uid="{5CFAA41B-1494-485F-8E55-AC2C68CE485E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId64"/>
+  <pageSetup orientation="portrait" r:id="rId65"/>
 </worksheet>
 </file>
 
@@ -2901,11 +2920,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80246913580246915</v>
+        <v>0.80487804878048785</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.6</v>
+        <v>1.606060606060606</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E13A1B49-8EB3-4D1A-ACE5-C79EE022F63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0A9D0-8EBA-4B4F-B7A9-0B0F0E980217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
   <si>
     <t>day</t>
   </si>
@@ -547,6 +547,9 @@
   </si>
   <si>
     <t>Sum of Left Leaves</t>
+  </si>
+  <si>
+    <t>Convert a Number to Hexadecimal</t>
   </si>
 </sst>
 </file>
@@ -931,7 +934,7 @@
   <dimension ref="A2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F88" sqref="F88"/>
+      <selection activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,6 +2780,12 @@
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>84</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
@@ -2870,9 +2879,10 @@
     <hyperlink ref="B83" r:id="rId62" display="https://leetcode.com/problems/is-subsequence/" xr:uid="{A3CA29CB-659B-44EF-A562-09D4950B36A2}"/>
     <hyperlink ref="B84" r:id="rId63" display="https://leetcode.com/problems/binary-watch/" xr:uid="{DE864E7C-D7D7-4F20-AF57-126C514A50F2}"/>
     <hyperlink ref="B85" r:id="rId64" display="https://leetcode.com/problems/sum-of-left-leaves/" xr:uid="{5CFAA41B-1494-485F-8E55-AC2C68CE485E}"/>
+    <hyperlink ref="B86" r:id="rId65" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal/" xr:uid="{FECD9F98-159D-4E15-8BFF-288282FFE188}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId65"/>
+  <pageSetup orientation="portrait" r:id="rId66"/>
 </worksheet>
 </file>
 
@@ -2920,7 +2930,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80487804878048785</v>
+        <v>0.79518072289156627</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAA0A9D0-8EBA-4B4F-B7A9-0B0F0E980217}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933D519-617B-461E-94F4-11503570EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
   <si>
     <t>day</t>
   </si>
@@ -550,6 +550,12 @@
   </si>
   <si>
     <t>Convert a Number to Hexadecimal</t>
+  </si>
+  <si>
+    <t>Longest Palindrome</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-palindrome/submissions/1125227371/</t>
   </si>
 </sst>
 </file>
@@ -934,7 +940,7 @@
   <dimension ref="A2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="F89" sqref="F89"/>
+      <selection activeCell="E94" sqref="E94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2791,6 +2797,18 @@
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>85</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C87">
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <v>3</v>
+      </c>
+      <c r="I87" t="s">
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
@@ -2880,9 +2898,10 @@
     <hyperlink ref="B84" r:id="rId63" display="https://leetcode.com/problems/binary-watch/" xr:uid="{DE864E7C-D7D7-4F20-AF57-126C514A50F2}"/>
     <hyperlink ref="B85" r:id="rId64" display="https://leetcode.com/problems/sum-of-left-leaves/" xr:uid="{5CFAA41B-1494-485F-8E55-AC2C68CE485E}"/>
     <hyperlink ref="B86" r:id="rId65" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal/" xr:uid="{FECD9F98-159D-4E15-8BFF-288282FFE188}"/>
+    <hyperlink ref="B87" r:id="rId66" display="https://leetcode.com/problems/longest-palindrome/" xr:uid="{3EF32C8C-C3A8-4CB3-B58E-5188ECBB7815}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId66"/>
+  <pageSetup orientation="portrait" r:id="rId67"/>
 </worksheet>
 </file>
 
@@ -2930,11 +2949,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79518072289156627</v>
+        <v>0.79761904761904767</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.606060606060606</v>
+        <v>1.6268656716417911</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B933D519-617B-461E-94F4-11503570EE92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D612DB3-CBF2-4AAC-B534-D82258A7E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t>day</t>
   </si>
@@ -556,6 +556,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/longest-palindrome/submissions/1125227371/</t>
+  </si>
+  <si>
+    <t>Fizz Buzz</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/fizz-buzz/submissions/1126046910/</t>
   </si>
 </sst>
 </file>
@@ -940,7 +946,7 @@
   <dimension ref="A2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E94" sqref="E94"/>
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2814,6 +2820,18 @@
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>86</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="C88">
+        <v>1</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="I88" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
@@ -2899,9 +2917,10 @@
     <hyperlink ref="B85" r:id="rId64" display="https://leetcode.com/problems/sum-of-left-leaves/" xr:uid="{5CFAA41B-1494-485F-8E55-AC2C68CE485E}"/>
     <hyperlink ref="B86" r:id="rId65" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal/" xr:uid="{FECD9F98-159D-4E15-8BFF-288282FFE188}"/>
     <hyperlink ref="B87" r:id="rId66" display="https://leetcode.com/problems/longest-palindrome/" xr:uid="{3EF32C8C-C3A8-4CB3-B58E-5188ECBB7815}"/>
+    <hyperlink ref="B88" r:id="rId67" display="https://leetcode.com/problems/fizz-buzz/" xr:uid="{E9A27928-A08F-48B0-96C2-C9FF489DDF2F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId67"/>
+  <pageSetup orientation="portrait" r:id="rId68"/>
 </worksheet>
 </file>
 
@@ -2949,11 +2968,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79761904761904767</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.6268656716417911</v>
+        <v>1.6176470588235294</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D612DB3-CBF2-4AAC-B534-D82258A7E8CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C54A78-DB91-4295-8F01-1D0AE9CE3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
   <si>
     <t>day</t>
   </si>
@@ -562,6 +562,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/fizz-buzz/submissions/1126046910/</t>
+  </si>
+  <si>
+    <t>Third Maximum Number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/third-maximum-number/submissions/1126650866/</t>
   </si>
 </sst>
 </file>
@@ -946,7 +952,7 @@
   <dimension ref="A2:J91"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="E93" sqref="E93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2837,6 +2843,18 @@
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>87</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C89">
+        <v>1</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="I89" t="s">
+        <v>176</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
@@ -2918,9 +2936,10 @@
     <hyperlink ref="B86" r:id="rId65" display="https://leetcode.com/problems/convert-a-number-to-hexadecimal/" xr:uid="{FECD9F98-159D-4E15-8BFF-288282FFE188}"/>
     <hyperlink ref="B87" r:id="rId66" display="https://leetcode.com/problems/longest-palindrome/" xr:uid="{3EF32C8C-C3A8-4CB3-B58E-5188ECBB7815}"/>
     <hyperlink ref="B88" r:id="rId67" display="https://leetcode.com/problems/fizz-buzz/" xr:uid="{E9A27928-A08F-48B0-96C2-C9FF489DDF2F}"/>
+    <hyperlink ref="B89" r:id="rId68" display="https://leetcode.com/problems/third-maximum-number/" xr:uid="{AFDD8B10-A744-4D4D-B249-44AAE744D576}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId68"/>
+  <pageSetup orientation="portrait" r:id="rId69"/>
 </worksheet>
 </file>
 
@@ -2968,11 +2987,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.80232558139534882</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.6176470588235294</v>
+        <v>1.6086956521739131</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30C54A78-DB91-4295-8F01-1D0AE9CE3133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5BF36-24CC-4999-9DDA-8200269D2D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
   <si>
     <t>day</t>
   </si>
@@ -568,6 +568,21 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/third-maximum-number/submissions/1126650866/</t>
+  </si>
+  <si>
+    <t>Add Strings</t>
+  </si>
+  <si>
+    <t>Number of Segments in a String</t>
+  </si>
+  <si>
+    <t>Arranging Coins</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/arranging-coins/submissions/1129174719/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-of-segments-in-a-string/submissions/1128176166/</t>
   </si>
 </sst>
 </file>
@@ -949,10 +964,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
-  <dimension ref="A2:J91"/>
+  <dimension ref="A2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="E93" sqref="E93"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2861,10 +2876,135 @@
       <c r="A90">
         <v>88</v>
       </c>
+      <c r="B90" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>89</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="I91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>90</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C92">
+        <v>1</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="I92" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2937,9 +3077,12 @@
     <hyperlink ref="B87" r:id="rId66" display="https://leetcode.com/problems/longest-palindrome/" xr:uid="{3EF32C8C-C3A8-4CB3-B58E-5188ECBB7815}"/>
     <hyperlink ref="B88" r:id="rId67" display="https://leetcode.com/problems/fizz-buzz/" xr:uid="{E9A27928-A08F-48B0-96C2-C9FF489DDF2F}"/>
     <hyperlink ref="B89" r:id="rId68" display="https://leetcode.com/problems/third-maximum-number/" xr:uid="{AFDD8B10-A744-4D4D-B249-44AAE744D576}"/>
+    <hyperlink ref="B90" r:id="rId69" display="https://leetcode.com/problems/add-strings" xr:uid="{B34290B6-7D94-4610-9A9A-07B11D20AC26}"/>
+    <hyperlink ref="B91" r:id="rId70" display="https://leetcode.com/problems/number-of-segments-in-a-string" xr:uid="{4A59445C-191A-459C-B80B-970D33497803}"/>
+    <hyperlink ref="B92" r:id="rId71" display="https://leetcode.com/problems/arranging-coins" xr:uid="{EA4D99AD-4C43-4EA6-A39F-55272757B88B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId69"/>
+  <pageSetup orientation="portrait" r:id="rId72"/>
 </worksheet>
 </file>
 
@@ -2987,11 +3130,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80232558139534882</v>
+        <v>0.797752808988764</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.6086956521739131</v>
+        <v>1.591549295774648</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B5BF36-24CC-4999-9DDA-8200269D2D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB101606-F85A-4B1A-B273-B0AD3358D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1725" yWindow="810" windowWidth="25815" windowHeight="13350" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
   <si>
     <t>day</t>
   </si>
@@ -583,6 +583,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-of-segments-in-a-string/submissions/1128176166/</t>
+  </si>
+  <si>
+    <t>Find All Numbers Disappeared in an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/1129979058/</t>
   </si>
 </sst>
 </file>
@@ -967,7 +973,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2920,6 +2926,18 @@
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>91</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C93">
+        <v>1</v>
+      </c>
+      <c r="D93">
+        <v>2</v>
+      </c>
+      <c r="I93" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
@@ -3080,9 +3098,10 @@
     <hyperlink ref="B90" r:id="rId69" display="https://leetcode.com/problems/add-strings" xr:uid="{B34290B6-7D94-4610-9A9A-07B11D20AC26}"/>
     <hyperlink ref="B91" r:id="rId70" display="https://leetcode.com/problems/number-of-segments-in-a-string" xr:uid="{4A59445C-191A-459C-B80B-970D33497803}"/>
     <hyperlink ref="B92" r:id="rId71" display="https://leetcode.com/problems/arranging-coins" xr:uid="{EA4D99AD-4C43-4EA6-A39F-55272757B88B}"/>
+    <hyperlink ref="B93" r:id="rId72" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/" xr:uid="{A3F26AF2-B321-4B61-8202-D77B85480E51}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId72"/>
+  <pageSetup orientation="portrait" r:id="rId73"/>
 </worksheet>
 </file>
 
@@ -3130,11 +3149,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.797752808988764</v>
+        <v>0.8</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.591549295774648</v>
+        <v>1.5972222222222223</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB101606-F85A-4B1A-B273-B0AD3358D382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652AF13-E667-483A-8E54-C6C42E168D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
   <si>
     <t>day</t>
   </si>
@@ -589,6 +589,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/submissions/1129979058/</t>
+  </si>
+  <si>
+    <t>Assign Cookies</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/assign-cookies/submissions/1131802204/</t>
   </si>
 </sst>
 </file>
@@ -973,7 +979,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2943,6 +2949,18 @@
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>92</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C94">
+        <v>1</v>
+      </c>
+      <c r="D94">
+        <v>2</v>
+      </c>
+      <c r="I94" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
@@ -3099,9 +3117,10 @@
     <hyperlink ref="B91" r:id="rId70" display="https://leetcode.com/problems/number-of-segments-in-a-string" xr:uid="{4A59445C-191A-459C-B80B-970D33497803}"/>
     <hyperlink ref="B92" r:id="rId71" display="https://leetcode.com/problems/arranging-coins" xr:uid="{EA4D99AD-4C43-4EA6-A39F-55272757B88B}"/>
     <hyperlink ref="B93" r:id="rId72" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/" xr:uid="{A3F26AF2-B321-4B61-8202-D77B85480E51}"/>
+    <hyperlink ref="B94" r:id="rId73" display="https://leetcode.com/problems/assign-cookies/" xr:uid="{31D49D3A-2247-4BCE-9F37-899210C1E9F3}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId73"/>
+  <pageSetup orientation="portrait" r:id="rId74"/>
 </worksheet>
 </file>
 
@@ -3149,11 +3168,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.8</v>
+        <v>0.80219780219780223</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5972222222222223</v>
+        <v>1.6027397260273972</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D652AF13-E667-483A-8E54-C6C42E168D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50FDB9-865E-4101-BE87-878D3EA13783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
   <si>
     <t>day</t>
   </si>
@@ -595,6 +595,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/assign-cookies/submissions/1131802204/</t>
+  </si>
+  <si>
+    <t>Repeated Substring Pattern</t>
   </si>
 </sst>
 </file>
@@ -979,7 +982,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+      <selection activeCell="F95" sqref="F95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2966,6 +2969,12 @@
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>93</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
@@ -3118,9 +3127,10 @@
     <hyperlink ref="B92" r:id="rId71" display="https://leetcode.com/problems/arranging-coins" xr:uid="{EA4D99AD-4C43-4EA6-A39F-55272757B88B}"/>
     <hyperlink ref="B93" r:id="rId72" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/" xr:uid="{A3F26AF2-B321-4B61-8202-D77B85480E51}"/>
     <hyperlink ref="B94" r:id="rId73" display="https://leetcode.com/problems/assign-cookies/" xr:uid="{31D49D3A-2247-4BCE-9F37-899210C1E9F3}"/>
+    <hyperlink ref="B95" r:id="rId74" display="https://leetcode.com/problems/repeated-substring-pattern/" xr:uid="{6E6C5A47-8F7F-441D-893D-CBEEB4410F61}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId74"/>
+  <pageSetup orientation="portrait" r:id="rId75"/>
 </worksheet>
 </file>
 
@@ -3168,7 +3178,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.80219780219780223</v>
+        <v>0.79347826086956519</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F50FDB9-865E-4101-BE87-878D3EA13783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B7011-61E7-4BC3-8DDA-D870060A8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
   <si>
     <t>day</t>
   </si>
@@ -598,6 +598,12 @@
   </si>
   <si>
     <t>Repeated Substring Pattern</t>
+  </si>
+  <si>
+    <t>Hamming Distance</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/hamming-distance/submissions/1133279332/</t>
   </si>
 </sst>
 </file>
@@ -982,7 +988,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="F95" sqref="F95"/>
+      <selection activeCell="G93" sqref="G93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2980,6 +2986,18 @@
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>94</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="C96">
+        <v>1</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="I96" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="97" spans="1:1" x14ac:dyDescent="0.25">
@@ -3128,9 +3146,10 @@
     <hyperlink ref="B93" r:id="rId72" display="https://leetcode.com/problems/find-all-numbers-disappeared-in-an-array/" xr:uid="{A3F26AF2-B321-4B61-8202-D77B85480E51}"/>
     <hyperlink ref="B94" r:id="rId73" display="https://leetcode.com/problems/assign-cookies/" xr:uid="{31D49D3A-2247-4BCE-9F37-899210C1E9F3}"/>
     <hyperlink ref="B95" r:id="rId74" display="https://leetcode.com/problems/repeated-substring-pattern/" xr:uid="{6E6C5A47-8F7F-441D-893D-CBEEB4410F61}"/>
+    <hyperlink ref="B96" r:id="rId75" display="https://leetcode.com/problems/hamming-distance/" xr:uid="{A26CAB14-F45C-4CFA-90AB-19E4070B9837}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId75"/>
+  <pageSetup orientation="portrait" r:id="rId76"/>
 </worksheet>
 </file>
 
@@ -3178,11 +3197,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79347826086956519</v>
+        <v>0.79569892473118276</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.6027397260273972</v>
+        <v>1.5945945945945945</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B6B7011-61E7-4BC3-8DDA-D870060A8844}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500BDF7-F913-426D-B0AA-2172BD521621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
   <si>
     <t>day</t>
   </si>
@@ -604,6 +604,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/hamming-distance/submissions/1133279332/</t>
+  </si>
+  <si>
+    <t>Island Perimeter</t>
   </si>
 </sst>
 </file>
@@ -988,7 +991,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="G93" sqref="G93"/>
+      <selection activeCell="E96" sqref="E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3000,72 +3003,78 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
-    </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B97" s="5" t="s">
+        <v>189</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3147,9 +3156,10 @@
     <hyperlink ref="B94" r:id="rId73" display="https://leetcode.com/problems/assign-cookies/" xr:uid="{31D49D3A-2247-4BCE-9F37-899210C1E9F3}"/>
     <hyperlink ref="B95" r:id="rId74" display="https://leetcode.com/problems/repeated-substring-pattern/" xr:uid="{6E6C5A47-8F7F-441D-893D-CBEEB4410F61}"/>
     <hyperlink ref="B96" r:id="rId75" display="https://leetcode.com/problems/hamming-distance/" xr:uid="{A26CAB14-F45C-4CFA-90AB-19E4070B9837}"/>
+    <hyperlink ref="B97" r:id="rId76" display="https://leetcode.com/problems/island-perimeter/" xr:uid="{AC248191-C91D-4EB1-8DCE-0FD2EF83FE99}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId76"/>
+  <pageSetup orientation="portrait" r:id="rId77"/>
 </worksheet>
 </file>
 
@@ -3197,7 +3207,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79569892473118276</v>
+        <v>0.78723404255319152</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3500BDF7-F913-426D-B0AA-2172BD521621}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210D93F-DF60-43E3-83D6-76052DD48904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
   <si>
     <t>day</t>
   </si>
@@ -607,6 +607,12 @@
   </si>
   <si>
     <t>Island Perimeter</t>
+  </si>
+  <si>
+    <t>Number Complement</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/number-complement/submissions/1140051188/</t>
   </si>
 </sst>
 </file>
@@ -990,8 +996,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BECC8050-3973-4D61-AD7A-348E46DD3771}">
   <dimension ref="A2:J110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E96" sqref="E96"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3003,7 +3009,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>95</v>
       </c>
@@ -3014,67 +3020,79 @@
         <v>0</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>96</v>
       </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B98" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C98">
+        <v>1</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="I98" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>104</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>108</v>
       </c>
@@ -3157,9 +3175,10 @@
     <hyperlink ref="B95" r:id="rId74" display="https://leetcode.com/problems/repeated-substring-pattern/" xr:uid="{6E6C5A47-8F7F-441D-893D-CBEEB4410F61}"/>
     <hyperlink ref="B96" r:id="rId75" display="https://leetcode.com/problems/hamming-distance/" xr:uid="{A26CAB14-F45C-4CFA-90AB-19E4070B9837}"/>
     <hyperlink ref="B97" r:id="rId76" display="https://leetcode.com/problems/island-perimeter/" xr:uid="{AC248191-C91D-4EB1-8DCE-0FD2EF83FE99}"/>
+    <hyperlink ref="B98" r:id="rId77" display="https://leetcode.com/problems/number-complement/" xr:uid="{67355069-170D-4EC4-AE5E-4E1093D068AC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId77"/>
+  <pageSetup orientation="portrait" r:id="rId78"/>
 </worksheet>
 </file>
 
@@ -3207,11 +3226,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78723404255319152</v>
+        <v>0.78947368421052633</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5945945945945945</v>
+        <v>1.5866666666666667</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F210D93F-DF60-43E3-83D6-76052DD48904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D399F5-9285-443C-AE25-7492C742E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
   <si>
     <t>day</t>
   </si>
@@ -613,6 +613,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/number-complement/submissions/1140051188/</t>
+  </si>
+  <si>
+    <t>License Key Formatting</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/license-key-formatting/submissions/1140947621/</t>
   </si>
 </sst>
 </file>
@@ -997,7 +1003,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+      <selection activeCell="B105" sqref="B105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3040,6 +3046,18 @@
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>97</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C99">
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <v>2</v>
+      </c>
+      <c r="I99" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
@@ -3176,9 +3194,10 @@
     <hyperlink ref="B96" r:id="rId75" display="https://leetcode.com/problems/hamming-distance/" xr:uid="{A26CAB14-F45C-4CFA-90AB-19E4070B9837}"/>
     <hyperlink ref="B97" r:id="rId76" display="https://leetcode.com/problems/island-perimeter/" xr:uid="{AC248191-C91D-4EB1-8DCE-0FD2EF83FE99}"/>
     <hyperlink ref="B98" r:id="rId77" display="https://leetcode.com/problems/number-complement/" xr:uid="{67355069-170D-4EC4-AE5E-4E1093D068AC}"/>
+    <hyperlink ref="B99" r:id="rId78" display="https://leetcode.com/problems/license-key-formatting/" xr:uid="{FB5D85AB-A0BE-4C77-AF8C-6984D3FAAE46}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId78"/>
+  <pageSetup orientation="portrait" r:id="rId79"/>
 </worksheet>
 </file>
 
@@ -3226,11 +3245,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78947368421052633</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5866666666666667</v>
+        <v>1.5921052631578947</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87D399F5-9285-443C-AE25-7492C742E1F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B886C0A-BC47-4A0D-AB5B-02DC772567CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
   <si>
     <t>day</t>
   </si>
@@ -619,6 +619,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/license-key-formatting/submissions/1140947621/</t>
+  </si>
+  <si>
+    <t>Max Consecutive Ones</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/max-consecutive-ones/submissions/1141416344/</t>
   </si>
 </sst>
 </file>
@@ -1003,7 +1009,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="B105" sqref="B105"/>
+      <selection activeCell="E106" sqref="E106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3063,6 +3069,18 @@
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>98</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C100">
+        <v>1</v>
+      </c>
+      <c r="D100">
+        <v>2</v>
+      </c>
+      <c r="I100" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
@@ -3195,9 +3213,10 @@
     <hyperlink ref="B97" r:id="rId76" display="https://leetcode.com/problems/island-perimeter/" xr:uid="{AC248191-C91D-4EB1-8DCE-0FD2EF83FE99}"/>
     <hyperlink ref="B98" r:id="rId77" display="https://leetcode.com/problems/number-complement/" xr:uid="{67355069-170D-4EC4-AE5E-4E1093D068AC}"/>
     <hyperlink ref="B99" r:id="rId78" display="https://leetcode.com/problems/license-key-formatting/" xr:uid="{FB5D85AB-A0BE-4C77-AF8C-6984D3FAAE46}"/>
+    <hyperlink ref="B100" r:id="rId79" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{973831A7-A160-4232-BBB9-ED3207AE5874}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId79"/>
+  <pageSetup orientation="portrait" r:id="rId80"/>
 </worksheet>
 </file>
 
@@ -3245,11 +3264,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79166666666666663</v>
+        <v>0.79381443298969068</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5921052631578947</v>
+        <v>1.5974025974025974</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B886C0A-BC47-4A0D-AB5B-02DC772567CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31ECEB3-BE0D-4516-97F6-87279439E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
   <si>
     <t>day</t>
   </si>
@@ -625,6 +625,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/max-consecutive-ones/submissions/1141416344/</t>
+  </si>
+  <si>
+    <t>Construct the Rectangle</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/construct-the-rectangle/submissions/1142907874/</t>
   </si>
 </sst>
 </file>
@@ -710,9 +716,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -750,7 +756,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -856,7 +862,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -998,7 +1004,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1009,7 +1015,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="E106" sqref="E106"/>
+      <selection activeCell="G105" sqref="G105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3086,6 +3092,18 @@
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>99</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C101">
+        <v>1</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="I101" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
@@ -3214,9 +3232,10 @@
     <hyperlink ref="B98" r:id="rId77" display="https://leetcode.com/problems/number-complement/" xr:uid="{67355069-170D-4EC4-AE5E-4E1093D068AC}"/>
     <hyperlink ref="B99" r:id="rId78" display="https://leetcode.com/problems/license-key-formatting/" xr:uid="{FB5D85AB-A0BE-4C77-AF8C-6984D3FAAE46}"/>
     <hyperlink ref="B100" r:id="rId79" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{973831A7-A160-4232-BBB9-ED3207AE5874}"/>
+    <hyperlink ref="B101" r:id="rId80" display="https://leetcode.com/problems/construct-the-rectangle/" xr:uid="{F6BCAB0F-0842-4A36-8BA4-AF7A4ED9BAA4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId80"/>
+  <pageSetup orientation="portrait" r:id="rId81"/>
 </worksheet>
 </file>
 
@@ -3264,11 +3283,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79381443298969068</v>
+        <v>0.79591836734693877</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5974025974025974</v>
+        <v>1.5897435897435896</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31ECEB3-BE0D-4516-97F6-87279439E1C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD6777-4907-4DD4-A0D6-3804AE969F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29970" yWindow="1155" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="1170" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
   <si>
     <t>day</t>
   </si>
@@ -631,6 +631,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/construct-the-rectangle/submissions/1142907874/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/teemo-attacking/submissions/1143471272/</t>
+  </si>
+  <si>
+    <t>Teemo Attacking</t>
   </si>
 </sst>
 </file>
@@ -1015,7 +1021,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G105" sqref="G105"/>
+      <selection activeCell="G104" sqref="G104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3109,6 +3115,15 @@
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>100</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+      <c r="I102" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
@@ -3233,9 +3248,10 @@
     <hyperlink ref="B99" r:id="rId78" display="https://leetcode.com/problems/license-key-formatting/" xr:uid="{FB5D85AB-A0BE-4C77-AF8C-6984D3FAAE46}"/>
     <hyperlink ref="B100" r:id="rId79" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{973831A7-A160-4232-BBB9-ED3207AE5874}"/>
     <hyperlink ref="B101" r:id="rId80" display="https://leetcode.com/problems/construct-the-rectangle/" xr:uid="{F6BCAB0F-0842-4A36-8BA4-AF7A4ED9BAA4}"/>
+    <hyperlink ref="B102" r:id="rId81" display="https://leetcode.com/problems/teemo-attacking/" xr:uid="{18FCB3C5-A9FE-45FB-9396-E5242B578777}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId81"/>
+  <pageSetup orientation="portrait" r:id="rId82"/>
 </worksheet>
 </file>
 
@@ -3283,7 +3299,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79591836734693877</v>
+        <v>0.78787878787878785</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3DD6777-4907-4DD4-A0D6-3804AE969F5E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38820BEB-2DFC-442B-9998-323F6C31061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1170" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
   <si>
     <t>day</t>
   </si>
@@ -637,6 +637,12 @@
   </si>
   <si>
     <t>Teemo Attacking</t>
+  </si>
+  <si>
+    <t>Add Two Numbers</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/add-two-numbers/submissions/1146170529/</t>
   </si>
 </sst>
 </file>
@@ -1021,7 +1027,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="G104" sqref="G104"/>
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3129,6 +3135,18 @@
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>101</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C103">
+        <v>1</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="I103" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
@@ -3249,9 +3267,10 @@
     <hyperlink ref="B100" r:id="rId79" display="https://leetcode.com/problems/max-consecutive-ones/" xr:uid="{973831A7-A160-4232-BBB9-ED3207AE5874}"/>
     <hyperlink ref="B101" r:id="rId80" display="https://leetcode.com/problems/construct-the-rectangle/" xr:uid="{F6BCAB0F-0842-4A36-8BA4-AF7A4ED9BAA4}"/>
     <hyperlink ref="B102" r:id="rId81" display="https://leetcode.com/problems/teemo-attacking/" xr:uid="{18FCB3C5-A9FE-45FB-9396-E5242B578777}"/>
+    <hyperlink ref="B103" r:id="rId82" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{EE0C5171-8AAD-465C-BCED-2646A859BCBF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId82"/>
+  <pageSetup orientation="portrait" r:id="rId83"/>
 </worksheet>
 </file>
 
@@ -3299,11 +3318,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78787878787878785</v>
+        <v>0.79</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5897435897435896</v>
+        <v>1.5822784810126582</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38820BEB-2DFC-442B-9998-323F6C31061A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9D1C5-614D-4AA8-9F92-8E56FEFE6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="2295" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
   <si>
     <t>day</t>
   </si>
@@ -643,6 +643,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/add-two-numbers/submissions/1146170529/</t>
+  </si>
+  <si>
+    <t>Longest Substring Without Repeating Characters</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1030,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+      <selection activeCell="D108" sqref="D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3152,6 +3155,12 @@
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>102</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
@@ -3268,9 +3277,10 @@
     <hyperlink ref="B101" r:id="rId80" display="https://leetcode.com/problems/construct-the-rectangle/" xr:uid="{F6BCAB0F-0842-4A36-8BA4-AF7A4ED9BAA4}"/>
     <hyperlink ref="B102" r:id="rId81" display="https://leetcode.com/problems/teemo-attacking/" xr:uid="{18FCB3C5-A9FE-45FB-9396-E5242B578777}"/>
     <hyperlink ref="B103" r:id="rId82" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{EE0C5171-8AAD-465C-BCED-2646A859BCBF}"/>
+    <hyperlink ref="B104" r:id="rId83" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{6AFB477D-815D-418E-8877-EC0C7119EFF7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId83"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 
@@ -3318,7 +3328,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.79</v>
+        <v>0.78217821782178221</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C9D1C5-614D-4AA8-9F92-8E56FEFE6B64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162555C-7B08-4EA6-81DF-DD9FA8534153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>day</t>
   </si>
@@ -646,6 +646,9 @@
   </si>
   <si>
     <t>Longest Substring Without Repeating Characters</t>
+  </si>
+  <si>
+    <t>Longest Palindromic Substring</t>
   </si>
 </sst>
 </file>
@@ -1030,7 +1033,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="D108" sqref="D108"/>
+      <selection activeCell="F108" sqref="F108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3166,6 +3169,12 @@
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>103</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
@@ -3278,9 +3287,10 @@
     <hyperlink ref="B102" r:id="rId81" display="https://leetcode.com/problems/teemo-attacking/" xr:uid="{18FCB3C5-A9FE-45FB-9396-E5242B578777}"/>
     <hyperlink ref="B103" r:id="rId82" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{EE0C5171-8AAD-465C-BCED-2646A859BCBF}"/>
     <hyperlink ref="B104" r:id="rId83" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{6AFB477D-815D-418E-8877-EC0C7119EFF7}"/>
+    <hyperlink ref="B105" r:id="rId84" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D6B17B77-0330-4EA1-98D9-4792AD957D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId85"/>
 </worksheet>
 </file>
 
@@ -3328,7 +3338,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.78217821782178221</v>
+        <v>0.77450980392156865</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4162555C-7B08-4EA6-81DF-DD9FA8534153}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6FCA5-6E98-49BF-AAE8-364835C3C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
   <si>
     <t>day</t>
   </si>
@@ -649,6 +649,9 @@
   </si>
   <si>
     <t>Longest Palindromic Substring</t>
+  </si>
+  <si>
+    <t>Zigzag Conversion</t>
   </si>
 </sst>
 </file>
@@ -3181,6 +3184,12 @@
       <c r="A106">
         <v>104</v>
       </c>
+      <c r="B106" s="5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
@@ -3288,9 +3297,10 @@
     <hyperlink ref="B103" r:id="rId82" display="https://leetcode.com/problems/add-two-numbers/" xr:uid="{EE0C5171-8AAD-465C-BCED-2646A859BCBF}"/>
     <hyperlink ref="B104" r:id="rId83" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{6AFB477D-815D-418E-8877-EC0C7119EFF7}"/>
     <hyperlink ref="B105" r:id="rId84" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D6B17B77-0330-4EA1-98D9-4792AD957D36}"/>
+    <hyperlink ref="B106" r:id="rId85" display="https://leetcode.com/problems/zigzag-conversion/" xr:uid="{75FD37B5-BD0C-4BBD-B9DE-810195B76E84}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 
@@ -3338,7 +3348,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.77450980392156865</v>
+        <v>0.76699029126213591</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7B6FCA5-6E98-49BF-AAE8-364835C3C73D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7B46C-92C1-4B8D-A53F-1C1833F13369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="21600" windowHeight="11295" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
   <si>
     <t>day</t>
   </si>
@@ -652,6 +652,12 @@
   </si>
   <si>
     <t>Zigzag Conversion</t>
+  </si>
+  <si>
+    <t>Reverse Integer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-integer/submissions/1154054610/</t>
   </si>
 </sst>
 </file>
@@ -1036,7 +1042,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+      <selection activeCell="F113" sqref="F113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3194,6 +3200,18 @@
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>105</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C107">
+        <v>1</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="I107" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
@@ -3298,9 +3316,10 @@
     <hyperlink ref="B104" r:id="rId83" display="https://leetcode.com/problems/longest-substring-without-repeating-characters/" xr:uid="{6AFB477D-815D-418E-8877-EC0C7119EFF7}"/>
     <hyperlink ref="B105" r:id="rId84" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D6B17B77-0330-4EA1-98D9-4792AD957D36}"/>
     <hyperlink ref="B106" r:id="rId85" display="https://leetcode.com/problems/zigzag-conversion/" xr:uid="{75FD37B5-BD0C-4BBD-B9DE-810195B76E84}"/>
+    <hyperlink ref="B107" r:id="rId86" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{476F2089-E47E-4786-845D-5D16DCADC0B6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
 
@@ -3348,11 +3367,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.76699029126213591</v>
+        <v>0.76923076923076927</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.5822784810126582</v>
+        <v>1.575</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7B46C-92C1-4B8D-A53F-1C1833F13369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD5CA8-1551-433D-AC3F-C67181D97286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
   <si>
     <t>day</t>
   </si>
@@ -658,6 +658,9 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/reverse-integer/submissions/1154054610/</t>
+  </si>
+  <si>
+    <t>String to Integer (atoi)</t>
   </si>
 </sst>
 </file>
@@ -1042,7 +1045,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F113" sqref="F113"/>
+      <selection activeCell="F114" sqref="F114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3217,6 +3220,12 @@
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>106</v>
+      </c>
+      <c r="B108" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
@@ -3317,9 +3326,10 @@
     <hyperlink ref="B105" r:id="rId84" display="https://leetcode.com/problems/longest-palindromic-substring/" xr:uid="{D6B17B77-0330-4EA1-98D9-4792AD957D36}"/>
     <hyperlink ref="B106" r:id="rId85" display="https://leetcode.com/problems/zigzag-conversion/" xr:uid="{75FD37B5-BD0C-4BBD-B9DE-810195B76E84}"/>
     <hyperlink ref="B107" r:id="rId86" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{476F2089-E47E-4786-845D-5D16DCADC0B6}"/>
+    <hyperlink ref="B108" r:id="rId87" display="https://leetcode.com/problems/string-to-integer-atoi/" xr:uid="{785D1968-4290-49E7-84F3-A9F098E73BFC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId87"/>
+  <pageSetup orientation="portrait" r:id="rId88"/>
 </worksheet>
 </file>
 
@@ -3367,7 +3377,7 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.76923076923076927</v>
+        <v>0.76190476190476186</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>

--- a/LeetCodeStats.xlsx
+++ b/LeetCodeStats.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dongwoo Daniel Kang\Desktop\D\CodingPractice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFD5CA8-1551-433D-AC3F-C67181D97286}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5FF0E01-C71C-4E41-AA1B-76B3D01D8835}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{2E8680C6-7AA1-4EFA-B278-DAF62749C3B8}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="210">
   <si>
     <t>day</t>
   </si>
@@ -661,6 +661,12 @@
   </si>
   <si>
     <t>String to Integer (atoi)</t>
+  </si>
+  <si>
+    <t>Container With Most Water</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/container-with-most-water/submissions/1158693177/</t>
   </si>
 </sst>
 </file>
@@ -746,9 +752,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -786,7 +792,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -892,7 +898,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1034,7 +1040,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1045,7 +1051,7 @@
   <dimension ref="A2:J110"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="F114" sqref="F114"/>
+      <selection activeCell="H115" sqref="H115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3231,6 +3237,18 @@
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>107</v>
+      </c>
+      <c r="B109" s="5" t="s">
+        <v>208</v>
+      </c>
+      <c r="C109">
+        <v>1</v>
+      </c>
+      <c r="D109">
+        <v>3</v>
+      </c>
+      <c r="I109" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
@@ -3327,9 +3345,10 @@
     <hyperlink ref="B106" r:id="rId85" display="https://leetcode.com/problems/zigzag-conversion/" xr:uid="{75FD37B5-BD0C-4BBD-B9DE-810195B76E84}"/>
     <hyperlink ref="B107" r:id="rId86" display="https://leetcode.com/problems/reverse-integer/" xr:uid="{476F2089-E47E-4786-845D-5D16DCADC0B6}"/>
     <hyperlink ref="B108" r:id="rId87" display="https://leetcode.com/problems/string-to-integer-atoi/" xr:uid="{785D1968-4290-49E7-84F3-A9F098E73BFC}"/>
+    <hyperlink ref="B109" r:id="rId88" display="https://leetcode.com/problems/container-with-most-water/" xr:uid="{B65BC02A-742D-43F7-8D57-16F238D1FCA5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 
@@ -3377,11 +3396,11 @@
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B3" s="4">
         <f>SUM(List!C3:C500)/COUNT(List!C3:C500)</f>
-        <v>0.76190476190476186</v>
+        <v>0.76415094339622647</v>
       </c>
       <c r="C3" s="2">
         <f>SUM(List!D3:D500)/COUNT(List!D3:D500)</f>
-        <v>1.575</v>
+        <v>1.5925925925925926</v>
       </c>
       <c r="D3" s="2">
         <f>SUM(List!E3:E500)/COUNT(List!E3:E500)</f>
